--- a/data/new_posteriors/no_elementary_skills/complex_model/noleak/constrained/results_model2a_noleak_constrained.xlsx
+++ b/data/new_posteriors/no_elementary_skills/complex_model/noleak/constrained/results_model2a_noleak_constrained.xlsx
@@ -622,25 +622,25 @@
         <v>1.0</v>
       </c>
       <c r="E3" t="n" s="25">
-        <v>0.9989144119718087</v>
+        <v>0.9987017891797556</v>
       </c>
       <c r="F3" t="n" s="25">
-        <v>0.9999806645081193</v>
+        <v>0.9999153268141345</v>
       </c>
       <c r="G3" t="n" s="25">
-        <v>0.9999998624944785</v>
+        <v>1.0</v>
       </c>
       <c r="H3" t="n" s="25">
-        <v>0.9989322938327848</v>
+        <v>0.9972256818050763</v>
       </c>
       <c r="I3" t="n" s="25">
-        <v>0.9999989848238333</v>
+        <v>1.0</v>
       </c>
       <c r="J3" t="n" s="25">
         <v>1.0</v>
       </c>
       <c r="K3" t="n" s="25">
-        <v>0.9518491256237868</v>
+        <v>1.0</v>
       </c>
       <c r="L3" t="n" s="25">
         <v>1.0</v>
@@ -657,25 +657,25 @@
         <v>2.0</v>
       </c>
       <c r="E4" t="n" s="25">
-        <v>0.9989990688613227</v>
+        <v>0.9988030070615418</v>
       </c>
       <c r="F4" t="n" s="25">
-        <v>0.9999990823987623</v>
+        <v>0.9999959814285257</v>
       </c>
       <c r="G4" t="n" s="25">
-        <v>0.9999999999912884</v>
+        <v>1.0</v>
       </c>
       <c r="H4" t="n" s="25">
-        <v>0.9998142743894936</v>
+        <v>0.9994560544867048</v>
       </c>
       <c r="I4" t="n" s="25">
-        <v>0.9999999999961092</v>
+        <v>1.0</v>
       </c>
       <c r="J4" t="n" s="25">
         <v>1.0</v>
       </c>
       <c r="K4" t="n" s="25">
-        <v>0.9996931334938806</v>
+        <v>1.0</v>
       </c>
       <c r="L4" t="n" s="25">
         <v>1.0</v>
@@ -692,16 +692,16 @@
         <v>3.0</v>
       </c>
       <c r="E5" t="n" s="25">
-        <v>0.9992612861257367</v>
+        <v>0.9991165418662171</v>
       </c>
       <c r="F5" t="n" s="25">
-        <v>0.9999997062170045</v>
+        <v>0.9999987133948762</v>
       </c>
       <c r="G5" t="n" s="25">
-        <v>0.9999999999999781</v>
+        <v>1.0</v>
       </c>
       <c r="H5" t="n" s="25">
-        <v>0.99998443095205</v>
+        <v>0.9999341874675148</v>
       </c>
       <c r="I5" t="n" s="25">
         <v>1.0</v>
@@ -710,7 +710,7 @@
         <v>1.0</v>
       </c>
       <c r="K5" t="n" s="25">
-        <v>0.9999945525612022</v>
+        <v>1.0</v>
       </c>
       <c r="L5" t="n" s="25">
         <v>1.0</v>
@@ -727,16 +727,16 @@
         <v>4.0</v>
       </c>
       <c r="E6" t="n" s="25">
-        <v>0.9992612861257367</v>
+        <v>0.9991165418662171</v>
       </c>
       <c r="F6" t="n" s="25">
-        <v>0.9999997062170045</v>
+        <v>0.9999987133948762</v>
       </c>
       <c r="G6" t="n" s="25">
-        <v>0.9999999999999781</v>
+        <v>1.0</v>
       </c>
       <c r="H6" t="n" s="25">
-        <v>0.9999895610288345</v>
+        <v>0.9999558722854878</v>
       </c>
       <c r="I6" t="n" s="25">
         <v>1.0</v>
@@ -745,7 +745,7 @@
         <v>1.0</v>
       </c>
       <c r="K6" t="n" s="25">
-        <v>0.9999993488436147</v>
+        <v>1.0</v>
       </c>
       <c r="L6" t="n" s="25">
         <v>1.0</v>
@@ -762,25 +762,25 @@
         <v>5.0</v>
       </c>
       <c r="E7" t="n" s="25">
-        <v>0.9991868779273477</v>
+        <v>0.9990275682468105</v>
       </c>
       <c r="F7" t="n" s="25">
-        <v>0.9999993722586107</v>
+        <v>0.9999972508470913</v>
       </c>
       <c r="G7" t="n" s="25">
-        <v>0.9999999999927126</v>
+        <v>1.0</v>
       </c>
       <c r="H7" t="n" s="25">
-        <v>0.9999701484324417</v>
+        <v>0.9998881337585002</v>
       </c>
       <c r="I7" t="n" s="25">
-        <v>0.9999999999999207</v>
+        <v>1.0</v>
       </c>
       <c r="J7" t="n" s="25">
         <v>1.0</v>
       </c>
       <c r="K7" t="n" s="25">
-        <v>0.9999803626688007</v>
+        <v>1.0</v>
       </c>
       <c r="L7" t="n" s="25">
         <v>1.0</v>
@@ -797,28 +797,28 @@
         <v>6.0</v>
       </c>
       <c r="E8" t="n" s="25">
-        <v>0.9989990688613227</v>
+        <v>0.9990436495075876</v>
       </c>
       <c r="F8" t="n" s="25">
-        <v>0.9999990823987623</v>
+        <v>0.9999993944165498</v>
       </c>
       <c r="G8" t="n" s="25">
-        <v>0.9999999999912884</v>
+        <v>0.9999999999997741</v>
       </c>
       <c r="H8" t="n" s="25">
-        <v>0.9995907801978414</v>
+        <v>0.9996953505635855</v>
       </c>
       <c r="I8" t="n" s="25">
-        <v>0.9999999999451366</v>
+        <v>0.9999999999787358</v>
       </c>
       <c r="J8" t="n" s="25">
-        <v>0.9999999999982191</v>
+        <v>1.0</v>
       </c>
       <c r="K8" t="n" s="25">
-        <v>0.9751371412428526</v>
+        <v>0.9701123418208621</v>
       </c>
       <c r="L8" t="n" s="25">
-        <v>0.9974192073747251</v>
+        <v>0.9991360989269302</v>
       </c>
       <c r="M8" t="n" s="25">
         <v>0.9995761609582862</v>
@@ -832,16 +832,16 @@
         <v>7.0</v>
       </c>
       <c r="E9" t="n" s="25">
-        <v>0.9992612861257367</v>
+        <v>0.9991165418662171</v>
       </c>
       <c r="F9" t="n" s="25">
-        <v>0.9999997062170045</v>
+        <v>0.9999987133948762</v>
       </c>
       <c r="G9" t="n" s="25">
-        <v>0.9999999999999781</v>
+        <v>1.0</v>
       </c>
       <c r="H9" t="n" s="25">
-        <v>0.9999935804766492</v>
+        <v>0.9999728629800868</v>
       </c>
       <c r="I9" t="n" s="25">
         <v>1.0</v>
@@ -850,7 +850,7 @@
         <v>1.0</v>
       </c>
       <c r="K9" t="n" s="25">
-        <v>0.9999999379889265</v>
+        <v>1.0</v>
       </c>
       <c r="L9" t="n" s="25">
         <v>1.0</v>
@@ -867,25 +867,25 @@
         <v>8.0</v>
       </c>
       <c r="E10" t="n" s="25">
-        <v>0.9990914510156967</v>
+        <v>0.9989134652963333</v>
       </c>
       <c r="F10" t="n" s="25">
-        <v>0.9999993618232316</v>
+        <v>0.9999972051461203</v>
       </c>
       <c r="G10" t="n" s="25">
-        <v>0.9999999999986967</v>
+        <v>1.0</v>
       </c>
       <c r="H10" t="n" s="25">
-        <v>0.9999371183044187</v>
+        <v>0.999791881744405</v>
       </c>
       <c r="I10" t="n" s="25">
-        <v>0.9999999999999517</v>
+        <v>1.0</v>
       </c>
       <c r="J10" t="n" s="25">
         <v>1.0</v>
       </c>
       <c r="K10" t="n" s="25">
-        <v>0.9999820816780681</v>
+        <v>1.0</v>
       </c>
       <c r="L10" t="n" s="25">
         <v>1.0</v>
@@ -902,25 +902,25 @@
         <v>9.0</v>
       </c>
       <c r="E11" t="n" s="25">
-        <v>0.9992612861257367</v>
+        <v>0.9991165418662171</v>
       </c>
       <c r="F11" t="n" s="25">
-        <v>0.9999984521490705</v>
+        <v>0.9999932213078087</v>
       </c>
       <c r="G11" t="n" s="25">
-        <v>0.9999999947991584</v>
+        <v>1.0</v>
       </c>
       <c r="H11" t="n" s="25">
-        <v>0.9999891264169046</v>
+        <v>0.9999540351544275</v>
       </c>
       <c r="I11" t="n" s="25">
-        <v>0.9999999999960442</v>
+        <v>1.0</v>
       </c>
       <c r="J11" t="n" s="25">
         <v>1.0</v>
       </c>
       <c r="K11" t="n" s="25">
-        <v>0.9999855784331403</v>
+        <v>1.0</v>
       </c>
       <c r="L11" t="n" s="25">
         <v>1.0</v>
@@ -937,16 +937,16 @@
         <v>10.0</v>
       </c>
       <c r="E12" t="n" s="25">
-        <v>0.9992612861257367</v>
+        <v>0.9991165418662171</v>
       </c>
       <c r="F12" t="n" s="25">
-        <v>0.9999997062170045</v>
+        <v>0.9999987133948762</v>
       </c>
       <c r="G12" t="n" s="25">
-        <v>0.9999999999999781</v>
+        <v>1.0</v>
       </c>
       <c r="H12" t="n" s="25">
-        <v>0.9999935804766492</v>
+        <v>0.9999728629800868</v>
       </c>
       <c r="I12" t="n" s="25">
         <v>1.0</v>
@@ -955,7 +955,7 @@
         <v>1.0</v>
       </c>
       <c r="K12" t="n" s="25">
-        <v>0.9999999379889265</v>
+        <v>1.0</v>
       </c>
       <c r="L12" t="n" s="25">
         <v>1.0</v>
@@ -972,25 +972,25 @@
         <v>11.0</v>
       </c>
       <c r="E13" t="n" s="25">
-        <v>0.9991855150308818</v>
+        <v>0.9990259385872776</v>
       </c>
       <c r="F13" t="n" s="25">
-        <v>0.9991587104338362</v>
+        <v>0.9963260641503227</v>
       </c>
       <c r="G13" t="n" s="25">
-        <v>0.662132882802292</v>
+        <v>1.0</v>
       </c>
       <c r="H13" t="n" s="25">
-        <v>0.999972604269044</v>
+        <v>0.9998975035416051</v>
       </c>
       <c r="I13" t="n" s="25">
-        <v>0.999999468785395</v>
+        <v>1.0</v>
       </c>
       <c r="J13" t="n" s="25">
         <v>1.0</v>
       </c>
       <c r="K13" t="n" s="25">
-        <v>0.9999994566395787</v>
+        <v>1.0</v>
       </c>
       <c r="L13" t="n" s="25">
         <v>1.0</v>
@@ -1007,28 +1007,28 @@
         <v>12.0</v>
       </c>
       <c r="E14" t="n" s="25">
-        <v>0.9993584866597034</v>
+        <v>0.9993870689558018</v>
       </c>
       <c r="F14" t="n" s="25">
-        <v>0.9999861480188305</v>
+        <v>0.9999908581559194</v>
       </c>
       <c r="G14" t="n" s="25">
-        <v>0.9701889156119111</v>
+        <v>0.9872353648344216</v>
       </c>
       <c r="H14" t="n" s="25">
-        <v>0.999984053391887</v>
+        <v>0.9999897276339219</v>
       </c>
       <c r="I14" t="n" s="25">
-        <v>0.9999781355902767</v>
+        <v>0.9999978485358655</v>
       </c>
       <c r="J14" t="n" s="25">
-        <v>0.9837825902400541</v>
+        <v>0.9999999999521512</v>
       </c>
       <c r="K14" t="n" s="25">
-        <v>0.9345280299237368</v>
+        <v>0.962231743379469</v>
       </c>
       <c r="L14" t="n" s="25">
-        <v>0.920264453734804</v>
+        <v>0.9999976536039148</v>
       </c>
       <c r="M14" t="n" s="25">
         <v>1.8544882892382612E-8</v>
@@ -1042,25 +1042,25 @@
         <v>13.0</v>
       </c>
       <c r="E15" t="n" s="25">
-        <v>0.9989990688613227</v>
+        <v>0.9988030070615418</v>
       </c>
       <c r="F15" t="n" s="25">
-        <v>0.9999960186635759</v>
+        <v>0.9999825641916354</v>
       </c>
       <c r="G15" t="n" s="25">
-        <v>0.9999911227536191</v>
+        <v>1.0</v>
       </c>
       <c r="H15" t="n" s="25">
-        <v>0.9998142743894936</v>
+        <v>0.9994560544867048</v>
       </c>
       <c r="I15" t="n" s="25">
-        <v>0.9999902587040193</v>
+        <v>1.0</v>
       </c>
       <c r="J15" t="n" s="25">
         <v>1.0</v>
       </c>
       <c r="K15" t="n" s="25">
-        <v>0.9831266592633527</v>
+        <v>1.0</v>
       </c>
       <c r="L15" t="n" s="25">
         <v>1.0</v>
@@ -1077,28 +1077,28 @@
         <v>14.0</v>
       </c>
       <c r="E16" t="n" s="25">
-        <v>0.9993584866597034</v>
+        <v>0.9993870689558018</v>
       </c>
       <c r="F16" t="n" s="25">
-        <v>0.9999967491131206</v>
+        <v>0.9999978545311691</v>
       </c>
       <c r="G16" t="n" s="25">
-        <v>0.9999999949239186</v>
+        <v>0.9999999990292088</v>
       </c>
       <c r="H16" t="n" s="25">
-        <v>0.9999972740434746</v>
+        <v>0.9999982440220885</v>
       </c>
       <c r="I16" t="n" s="25">
-        <v>0.9999999999999977</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="J16" t="n" s="25">
-        <v>0.9999999999998826</v>
+        <v>1.0</v>
       </c>
       <c r="K16" t="n" s="25">
-        <v>0.9999999445660884</v>
+        <v>0.9999999886041164</v>
       </c>
       <c r="L16" t="n" s="25">
-        <v>0.9999999999952317</v>
+        <v>1.0</v>
       </c>
       <c r="M16" t="n" s="25">
         <v>0.9999997982341461</v>
@@ -1112,25 +1112,25 @@
         <v>15.0</v>
       </c>
       <c r="E17" t="n" s="25">
-        <v>0.9991022957612626</v>
+        <v>0.9989264322563078</v>
       </c>
       <c r="F17" t="n" s="25">
-        <v>0.9999993911800813</v>
+        <v>0.9999973337122806</v>
       </c>
       <c r="G17" t="n" s="25">
-        <v>0.9999999999990213</v>
+        <v>1.0</v>
       </c>
       <c r="H17" t="n" s="25">
-        <v>0.9999379197837059</v>
+        <v>0.9997944394827913</v>
       </c>
       <c r="I17" t="n" s="25">
-        <v>0.9999999999999613</v>
+        <v>1.0</v>
       </c>
       <c r="J17" t="n" s="25">
         <v>1.0</v>
       </c>
       <c r="K17" t="n" s="25">
-        <v>0.9999784053335432</v>
+        <v>1.0</v>
       </c>
       <c r="L17" t="n" s="25">
         <v>1.0</v>
@@ -1147,16 +1147,16 @@
         <v>16.0</v>
       </c>
       <c r="E18" t="n" s="25">
-        <v>0.9993584866597034</v>
+        <v>0.9992327733369832</v>
       </c>
       <c r="F18" t="n" s="25">
-        <v>0.9999998196562523</v>
+        <v>0.9999992101949993</v>
       </c>
       <c r="G18" t="n" s="25">
-        <v>0.9999999999999974</v>
+        <v>1.0</v>
       </c>
       <c r="H18" t="n" s="25">
-        <v>0.9999971598130695</v>
+        <v>0.9999863950028963</v>
       </c>
       <c r="I18" t="n" s="25">
         <v>1.0</v>
@@ -1165,7 +1165,7 @@
         <v>1.0</v>
       </c>
       <c r="K18" t="n" s="25">
-        <v>0.9999999627394431</v>
+        <v>1.0</v>
       </c>
       <c r="L18" t="n" s="25">
         <v>1.0</v>
@@ -1182,16 +1182,16 @@
         <v>17.0</v>
       </c>
       <c r="E19" t="n" s="25">
-        <v>0.9992612861257367</v>
+        <v>0.9991165418662171</v>
       </c>
       <c r="F19" t="n" s="25">
-        <v>0.9999997062170045</v>
+        <v>0.9999987133948762</v>
       </c>
       <c r="G19" t="n" s="25">
-        <v>0.9999999999999781</v>
+        <v>1.0</v>
       </c>
       <c r="H19" t="n" s="25">
-        <v>0.9999895610288345</v>
+        <v>0.9999558722854878</v>
       </c>
       <c r="I19" t="n" s="25">
         <v>1.0</v>
@@ -1200,7 +1200,7 @@
         <v>1.0</v>
       </c>
       <c r="K19" t="n" s="25">
-        <v>0.9999993488436147</v>
+        <v>1.0</v>
       </c>
       <c r="L19" t="n" s="25">
         <v>1.0</v>
@@ -1217,16 +1217,16 @@
         <v>18.0</v>
       </c>
       <c r="E20" t="n" s="25">
-        <v>0.9992612861257367</v>
+        <v>0.9991165418662171</v>
       </c>
       <c r="F20" t="n" s="25">
-        <v>0.9999997062170045</v>
+        <v>0.9999987133948762</v>
       </c>
       <c r="G20" t="n" s="25">
-        <v>0.9999999999999781</v>
+        <v>1.0</v>
       </c>
       <c r="H20" t="n" s="25">
-        <v>0.99998443095205</v>
+        <v>0.9999341874675148</v>
       </c>
       <c r="I20" t="n" s="25">
         <v>1.0</v>
@@ -1235,7 +1235,7 @@
         <v>1.0</v>
       </c>
       <c r="K20" t="n" s="25">
-        <v>0.9999945525612022</v>
+        <v>1.0</v>
       </c>
       <c r="L20" t="n" s="25">
         <v>1.0</v>
@@ -1252,16 +1252,16 @@
         <v>19.0</v>
       </c>
       <c r="E21" t="n" s="25">
-        <v>0.9993584866597034</v>
+        <v>0.9992327733369832</v>
       </c>
       <c r="F21" t="n" s="25">
-        <v>0.9999998196562523</v>
+        <v>0.9999992101949993</v>
       </c>
       <c r="G21" t="n" s="25">
-        <v>0.9999999999999974</v>
+        <v>1.0</v>
       </c>
       <c r="H21" t="n" s="25">
-        <v>0.9999981882542569</v>
+        <v>0.9999913213840247</v>
       </c>
       <c r="I21" t="n" s="25">
         <v>1.0</v>
@@ -1270,7 +1270,7 @@
         <v>1.0</v>
       </c>
       <c r="K21" t="n" s="25">
-        <v>0.999999996025087</v>
+        <v>1.0</v>
       </c>
       <c r="L21" t="n" s="25">
         <v>1.0</v>
@@ -1287,16 +1287,16 @@
         <v>20.0</v>
       </c>
       <c r="E22" t="n" s="25">
-        <v>0.9992612861257367</v>
+        <v>0.9991165418662171</v>
       </c>
       <c r="F22" t="n" s="25">
-        <v>0.9999997062170045</v>
+        <v>0.9999987133948762</v>
       </c>
       <c r="G22" t="n" s="25">
-        <v>0.9999999999999781</v>
+        <v>1.0</v>
       </c>
       <c r="H22" t="n" s="25">
-        <v>0.999989976051864</v>
+        <v>0.9999576266178845</v>
       </c>
       <c r="I22" t="n" s="25">
         <v>1.0</v>
@@ -1305,7 +1305,7 @@
         <v>1.0</v>
       </c>
       <c r="K22" t="n" s="25">
-        <v>0.9999994187414833</v>
+        <v>1.0</v>
       </c>
       <c r="L22" t="n" s="25">
         <v>1.0</v>
@@ -1322,16 +1322,16 @@
         <v>21.0</v>
       </c>
       <c r="E23" t="n" s="25">
-        <v>0.9993584866597034</v>
+        <v>0.9992327733369832</v>
       </c>
       <c r="F23" t="n" s="25">
-        <v>0.9999998196562523</v>
+        <v>0.9999992101949993</v>
       </c>
       <c r="G23" t="n" s="25">
-        <v>0.9999999999999974</v>
+        <v>1.0</v>
       </c>
       <c r="H23" t="n" s="25">
-        <v>0.99999556166843</v>
+        <v>0.9999787397365469</v>
       </c>
       <c r="I23" t="n" s="25">
         <v>1.0</v>
@@ -1340,7 +1340,7 @@
         <v>1.0</v>
       </c>
       <c r="K23" t="n" s="25">
-        <v>0.9999996507333352</v>
+        <v>1.0</v>
       </c>
       <c r="L23" t="n" s="25">
         <v>1.0</v>
@@ -1357,16 +1357,16 @@
         <v>22.0</v>
       </c>
       <c r="E24" t="n" s="25">
-        <v>0.9992612861257367</v>
+        <v>0.9991165418662171</v>
       </c>
       <c r="F24" t="n" s="25">
-        <v>0.9999997062170045</v>
+        <v>0.9999987133948762</v>
       </c>
       <c r="G24" t="n" s="25">
-        <v>0.9999999999999781</v>
+        <v>1.0</v>
       </c>
       <c r="H24" t="n" s="25">
-        <v>0.999989976051864</v>
+        <v>0.9999576266178845</v>
       </c>
       <c r="I24" t="n" s="25">
         <v>1.0</v>
@@ -1375,7 +1375,7 @@
         <v>1.0</v>
       </c>
       <c r="K24" t="n" s="25">
-        <v>0.9999994187414833</v>
+        <v>1.0</v>
       </c>
       <c r="L24" t="n" s="25">
         <v>1.0</v>
@@ -1392,25 +1392,25 @@
         <v>23.0</v>
       </c>
       <c r="E25" t="n" s="25">
-        <v>0.9992612861257367</v>
+        <v>0.9991165418662171</v>
       </c>
       <c r="F25" t="n" s="25">
-        <v>0.9999995692899719</v>
+        <v>0.9999981137319682</v>
       </c>
       <c r="G25" t="n" s="25">
-        <v>0.9999999999992263</v>
+        <v>1.0</v>
       </c>
       <c r="H25" t="n" s="25">
-        <v>0.99998443095205</v>
+        <v>0.9999341874675148</v>
       </c>
       <c r="I25" t="n" s="25">
-        <v>0.9999999999999972</v>
+        <v>1.0</v>
       </c>
       <c r="J25" t="n" s="25">
         <v>1.0</v>
       </c>
       <c r="K25" t="n" s="25">
-        <v>0.9999878993211664</v>
+        <v>1.0</v>
       </c>
       <c r="L25" t="n" s="25">
         <v>1.0</v>
@@ -1427,25 +1427,25 @@
         <v>24.0</v>
       </c>
       <c r="E26" t="n" s="25">
-        <v>0.9989990688613227</v>
+        <v>0.9988030070615418</v>
       </c>
       <c r="F26" t="n" s="25">
-        <v>0.9882347584740286</v>
+        <v>0.9504450775158728</v>
       </c>
       <c r="G26" t="n" s="25">
-        <v>0.8501996056959269</v>
+        <v>1.0</v>
       </c>
       <c r="H26" t="n" s="25">
-        <v>0.9941323707917079</v>
+        <v>0.9830014514746194</v>
       </c>
       <c r="I26" t="n" s="25">
-        <v>0.9836940798670232</v>
+        <v>1.0</v>
       </c>
       <c r="J26" t="n" s="25">
         <v>1.0</v>
       </c>
       <c r="K26" t="n" s="25">
-        <v>0.8458446683491476</v>
+        <v>1.0</v>
       </c>
       <c r="L26" t="n" s="25">
         <v>1.0</v>
@@ -1462,28 +1462,28 @@
         <v>25.0</v>
       </c>
       <c r="E27" t="n" s="25">
-        <v>0.9992837325783938</v>
+        <v>0.9993156432232382</v>
       </c>
       <c r="F27" t="n" s="25">
-        <v>0.999823830470837</v>
+        <v>0.9998837275878768</v>
       </c>
       <c r="G27" t="n" s="25">
-        <v>0.8018792065799122</v>
+        <v>0.8833329577826354</v>
       </c>
       <c r="H27" t="n" s="25">
-        <v>0.9999469055337381</v>
+        <v>0.9999645629594006</v>
       </c>
       <c r="I27" t="n" s="25">
-        <v>0.999837692933672</v>
+        <v>0.9999825930674024</v>
       </c>
       <c r="J27" t="n" s="25">
-        <v>0.12894987494326932</v>
+        <v>0.9998306365667042</v>
       </c>
       <c r="K27" t="n" s="25">
-        <v>0.9652099602691582</v>
+        <v>0.9856943032811851</v>
       </c>
       <c r="L27" t="n" s="25">
-        <v>0.9494051967648652</v>
+        <v>0.9999999997767682</v>
       </c>
       <c r="M27" t="n" s="25">
         <v>9.68771383930798E-12</v>
@@ -1497,25 +1497,25 @@
         <v>26.0</v>
       </c>
       <c r="E28" t="n" s="25">
-        <v>0.9991052860453463</v>
+        <v>0.9989300077204788</v>
       </c>
       <c r="F28" t="n" s="25">
-        <v>0.9999990856391697</v>
+        <v>0.9999959956196225</v>
       </c>
       <c r="G28" t="n" s="25">
-        <v>0.9999999999313559</v>
+        <v>1.0</v>
       </c>
       <c r="H28" t="n" s="25">
-        <v>0.9999428174729116</v>
+        <v>0.9998100355409644</v>
       </c>
       <c r="I28" t="n" s="25">
-        <v>0.9999999999977818</v>
+        <v>1.0</v>
       </c>
       <c r="J28" t="n" s="25">
         <v>1.0</v>
       </c>
       <c r="K28" t="n" s="25">
-        <v>0.9999680970923798</v>
+        <v>1.0</v>
       </c>
       <c r="L28" t="n" s="25">
         <v>1.0</v>
@@ -1532,25 +1532,25 @@
         <v>27.0</v>
       </c>
       <c r="E29" t="n" s="25">
-        <v>0.9987908017528341</v>
+        <v>0.9985540037638162</v>
       </c>
       <c r="F29" t="n" s="25">
-        <v>0.9999980651573475</v>
+        <v>0.9999915265188809</v>
       </c>
       <c r="G29" t="n" s="25">
-        <v>0.9999999992271364</v>
+        <v>1.0</v>
       </c>
       <c r="H29" t="n" s="25">
-        <v>0.9989271966137127</v>
+        <v>0.9975331021587649</v>
       </c>
       <c r="I29" t="n" s="25">
-        <v>0.9999999864140503</v>
+        <v>1.0</v>
       </c>
       <c r="J29" t="n" s="25">
         <v>1.0</v>
       </c>
       <c r="K29" t="n" s="25">
-        <v>0.9907598169824441</v>
+        <v>1.0</v>
       </c>
       <c r="L29" t="n" s="25">
         <v>1.0</v>
@@ -1567,28 +1567,28 @@
         <v>28.0</v>
       </c>
       <c r="E30" t="n" s="25">
-        <v>0.9987908017528341</v>
+        <v>0.9988446477162691</v>
       </c>
       <c r="F30" t="n" s="25">
-        <v>0.9389583678874718</v>
+        <v>0.9588608550077766</v>
       </c>
       <c r="G30" t="n" s="25">
-        <v>0.3710355505442348</v>
+        <v>0.662876092687713</v>
       </c>
       <c r="H30" t="n" s="25">
-        <v>0.9514495933189815</v>
+        <v>0.960904348159291</v>
       </c>
       <c r="I30" t="n" s="25">
-        <v>0.7413503745945411</v>
+        <v>0.9190534012832824</v>
       </c>
       <c r="J30" t="n" s="25">
-        <v>1.1196486324354682E-6</v>
+        <v>0.9952803285011067</v>
       </c>
       <c r="K30" t="n" s="25">
-        <v>0.6289790942122372</v>
+        <v>0.6611008679250142</v>
       </c>
       <c r="L30" t="n" s="25">
-        <v>1.1159050479343817E-5</v>
+        <v>2.658663564769034E-5</v>
       </c>
       <c r="M30" t="n" s="25">
         <v>2.958357937121925E-24</v>
@@ -1602,16 +1602,16 @@
         <v>29.0</v>
       </c>
       <c r="E31" t="n" s="25">
-        <v>0.9992612861257367</v>
+        <v>0.9991165418662171</v>
       </c>
       <c r="F31" t="n" s="25">
-        <v>0.9999997062170045</v>
+        <v>0.9999987133948762</v>
       </c>
       <c r="G31" t="n" s="25">
-        <v>0.9999999999999781</v>
+        <v>1.0</v>
       </c>
       <c r="H31" t="n" s="25">
-        <v>0.9999933120295676</v>
+        <v>0.9999717282078974</v>
       </c>
       <c r="I31" t="n" s="25">
         <v>1.0</v>
@@ -1620,7 +1620,7 @@
         <v>1.0</v>
       </c>
       <c r="K31" t="n" s="25">
-        <v>0.999999930531562</v>
+        <v>1.0</v>
       </c>
       <c r="L31" t="n" s="25">
         <v>1.0</v>
@@ -1637,28 +1637,28 @@
         <v>30.0</v>
       </c>
       <c r="E32" t="n" s="25">
-        <v>0.9987908017528341</v>
+        <v>0.9988446477162691</v>
       </c>
       <c r="F32" t="n" s="25">
-        <v>0.9166419531470323</v>
+        <v>0.9433819098350584</v>
       </c>
       <c r="G32" t="n" s="25">
-        <v>0.08935153912123808</v>
+        <v>0.1991062547864606</v>
       </c>
       <c r="H32" t="n" s="25">
-        <v>0.9420076549231827</v>
+        <v>0.9532107192577095</v>
       </c>
       <c r="I32" t="n" s="25">
-        <v>0.5890004362739563</v>
+        <v>0.8502287137449651</v>
       </c>
       <c r="J32" t="n" s="25">
-        <v>1.5577002003059938E-8</v>
+        <v>0.7131385205711289</v>
       </c>
       <c r="K32" t="n" s="25">
-        <v>0.6289755151517269</v>
+        <v>0.6610985770001426</v>
       </c>
       <c r="L32" t="n" s="25">
-        <v>2.511901554749694E-6</v>
+        <v>5.98472154428105E-6</v>
       </c>
       <c r="M32" t="n" s="25">
         <v>3.11938804825768E-26</v>
@@ -1672,28 +1672,28 @@
         <v>31.0</v>
       </c>
       <c r="E33" t="n" s="25">
-        <v>0.02591560888984709</v>
+        <v>0.02666404937253864</v>
       </c>
       <c r="F33" t="n" s="25">
-        <v>9.786150394826508E-5</v>
+        <v>1.2643136997323093E-4</v>
       </c>
       <c r="G33" t="n" s="25">
-        <v>2.6791661751008323E-8</v>
+        <v>4.4402789837495654E-8</v>
       </c>
       <c r="H33" t="n" s="25">
-        <v>6.090017373979438E-4</v>
+        <v>8.093271333458552E-4</v>
       </c>
       <c r="I33" t="n" s="25">
-        <v>6.298050185759009E-9</v>
+        <v>3.2048344081388664E-8</v>
       </c>
       <c r="J33" t="n" s="25">
-        <v>6.415358546800807E-19</v>
+        <v>1.570883880428285E-14</v>
       </c>
       <c r="K33" t="n" s="25">
-        <v>1.3707762280393096E-6</v>
+        <v>2.2946405314379234E-6</v>
       </c>
       <c r="L33" t="n" s="25">
-        <v>9.776321363047916E-18</v>
+        <v>1.9467386024669716E-13</v>
       </c>
       <c r="M33" t="n" s="25">
         <v>1.433915625866551E-38</v>
@@ -1707,28 +1707,28 @@
         <v>32.0</v>
       </c>
       <c r="E34" t="n" s="25">
-        <v>0.9989990688613227</v>
+        <v>0.9990436495075876</v>
       </c>
       <c r="F34" t="n" s="25">
-        <v>0.9819609413641635</v>
+        <v>0.9880214049895982</v>
       </c>
       <c r="G34" t="n" s="25">
-        <v>0.18178003084876074</v>
+        <v>0.2938790970129889</v>
       </c>
       <c r="H34" t="n" s="25">
-        <v>0.9943397705692603</v>
+        <v>0.9957804984662378</v>
       </c>
       <c r="I34" t="n" s="25">
-        <v>0.981514963075046</v>
+        <v>0.9966708834340239</v>
       </c>
       <c r="J34" t="n" s="25">
-        <v>6.253540296617607E-6</v>
+        <v>0.14301324377235541</v>
       </c>
       <c r="K34" t="n" s="25">
-        <v>0.848204179536779</v>
+        <v>0.9041962418023943</v>
       </c>
       <c r="L34" t="n" s="25">
-        <v>0.004365498820730051</v>
+        <v>0.9896015941308974</v>
       </c>
       <c r="M34" t="n" s="25">
         <v>2.12604849363419E-21</v>
@@ -1742,28 +1742,28 @@
         <v>33.0</v>
       </c>
       <c r="E35" t="n" s="25">
-        <v>0.0030008732512320667</v>
+        <v>0.0030632248096162597</v>
       </c>
       <c r="F35" t="n" s="25">
-        <v>6.933203655322773E-7</v>
+        <v>8.629642735987007E-7</v>
       </c>
       <c r="G35" t="n" s="25">
-        <v>1.103787617221983E-10</v>
+        <v>2.3967356676694766E-10</v>
       </c>
       <c r="H35" t="n" s="25">
-        <v>1.0159851604464222E-6</v>
+        <v>1.2938935558444275E-6</v>
       </c>
       <c r="I35" t="n" s="25">
-        <v>3.6368439604658647E-16</v>
+        <v>1.2717459663863991E-15</v>
       </c>
       <c r="J35" t="n" s="25">
-        <v>1.1272544526930307E-28</v>
+        <v>1.0630388255070521E-24</v>
       </c>
       <c r="K35" t="n" s="25">
-        <v>1.995571345401733E-11</v>
+        <v>2.316190002170752E-11</v>
       </c>
       <c r="L35" t="n" s="25">
-        <v>9.343371020942581E-30</v>
+        <v>2.0124709709519857E-29</v>
       </c>
       <c r="M35" t="n" s="25">
         <v>3.6631916508904305E-53</v>
@@ -1777,28 +1777,28 @@
         <v>34.0</v>
       </c>
       <c r="E36" t="n" s="25">
-        <v>0.9989990688613227</v>
+        <v>0.9990436495075876</v>
       </c>
       <c r="F36" t="n" s="25">
-        <v>0.9819609413641635</v>
+        <v>0.9880214049895982</v>
       </c>
       <c r="G36" t="n" s="25">
-        <v>0.18177945350846686</v>
+        <v>0.2938785599812437</v>
       </c>
       <c r="H36" t="n" s="25">
-        <v>0.9917169487612278</v>
+        <v>0.9938211287557048</v>
       </c>
       <c r="I36" t="n" s="25">
-        <v>0.9815082250157697</v>
+        <v>0.9966700618670401</v>
       </c>
       <c r="J36" t="n" s="25">
-        <v>2.501425504305147E-6</v>
+        <v>0.06257470437979058</v>
       </c>
       <c r="K36" t="n" s="25">
-        <v>0.6971051531045412</v>
+        <v>0.7351263744167347</v>
       </c>
       <c r="L36" t="n" s="25">
-        <v>1.5185665951317057E-4</v>
+        <v>4.5429554041481735E-4</v>
       </c>
       <c r="M36" t="n" s="25">
         <v>3.297816175103146E-24</v>
@@ -1812,28 +1812,28 @@
         <v>35.0</v>
       </c>
       <c r="E37" t="n" s="25">
-        <v>0.9989990688613227</v>
+        <v>0.9990436495075876</v>
       </c>
       <c r="F37" t="n" s="25">
-        <v>0.9819609413641635</v>
+        <v>0.9880214049895982</v>
       </c>
       <c r="G37" t="n" s="25">
-        <v>0.18178003084876074</v>
+        <v>0.2938790970129889</v>
       </c>
       <c r="H37" t="n" s="25">
-        <v>0.9943397705692603</v>
+        <v>0.9957804984662378</v>
       </c>
       <c r="I37" t="n" s="25">
-        <v>0.981514963075046</v>
+        <v>0.9966708834340239</v>
       </c>
       <c r="J37" t="n" s="25">
-        <v>6.253540296617607E-6</v>
+        <v>0.14301324377235541</v>
       </c>
       <c r="K37" t="n" s="25">
-        <v>0.848204179536779</v>
+        <v>0.9041962418023943</v>
       </c>
       <c r="L37" t="n" s="25">
-        <v>0.004365498820730051</v>
+        <v>0.9896015941308974</v>
       </c>
       <c r="M37" t="n" s="25">
         <v>2.12604849363419E-21</v>
@@ -1847,28 +1847,28 @@
         <v>36.0</v>
       </c>
       <c r="E38" t="n" s="25">
-        <v>0.9991293780754704</v>
+        <v>0.9991681596896833</v>
       </c>
       <c r="F38" t="n" s="25">
-        <v>0.9966891208581652</v>
+        <v>0.9978124780855379</v>
       </c>
       <c r="G38" t="n" s="25">
-        <v>0.9304152325289426</v>
+        <v>0.9785059274948732</v>
       </c>
       <c r="H38" t="n" s="25">
-        <v>0.9993711315807773</v>
+        <v>0.9995489354651423</v>
       </c>
       <c r="I38" t="n" s="25">
-        <v>0.9994974084867698</v>
+        <v>0.9998793782443874</v>
       </c>
       <c r="J38" t="n" s="25">
-        <v>0.9975797536982997</v>
+        <v>1.0</v>
       </c>
       <c r="K38" t="n" s="25">
-        <v>0.9915247472852626</v>
+        <v>0.9967825422084882</v>
       </c>
       <c r="L38" t="n" s="25">
-        <v>0.9974414581080712</v>
+        <v>0.999999999999998</v>
       </c>
       <c r="M38" t="n" s="25">
         <v>4.343341801322696E-4</v>
@@ -1882,28 +1882,28 @@
         <v>37.0</v>
       </c>
       <c r="E39" t="n" s="25">
-        <v>0.9989990688613227</v>
+        <v>0.9990436495075876</v>
       </c>
       <c r="F39" t="n" s="25">
-        <v>0.9819609413641635</v>
+        <v>0.9880214049895982</v>
       </c>
       <c r="G39" t="n" s="25">
-        <v>0.18178003084876074</v>
+        <v>0.2938790970129889</v>
       </c>
       <c r="H39" t="n" s="25">
-        <v>0.9943397705692603</v>
+        <v>0.9957804984662378</v>
       </c>
       <c r="I39" t="n" s="25">
-        <v>0.981514963075046</v>
+        <v>0.9966708834340239</v>
       </c>
       <c r="J39" t="n" s="25">
-        <v>6.253540296617605E-6</v>
+        <v>0.14301324377235544</v>
       </c>
       <c r="K39" t="n" s="25">
-        <v>0.848204179536779</v>
+        <v>0.9041962418023943</v>
       </c>
       <c r="L39" t="n" s="25">
-        <v>0.004365498820730053</v>
+        <v>0.9896015941308974</v>
       </c>
       <c r="M39" t="n" s="25">
         <v>2.1260484936341924E-21</v>
@@ -1917,28 +1917,28 @@
         <v>38.0</v>
       </c>
       <c r="E40" t="n" s="25">
-        <v>0.9989042766169554</v>
+        <v>0.9989530748069835</v>
       </c>
       <c r="F40" t="n" s="25">
-        <v>0.9403763422274848</v>
+        <v>0.959836277940426</v>
       </c>
       <c r="G40" t="n" s="25">
-        <v>0.08161296292577559</v>
+        <v>0.14271596628164496</v>
       </c>
       <c r="H40" t="n" s="25">
-        <v>0.9778572181928092</v>
+        <v>0.9828880683855409</v>
       </c>
       <c r="I40" t="n" s="25">
-        <v>0.8605781694748724</v>
+        <v>0.9671308618232445</v>
       </c>
       <c r="J40" t="n" s="25">
-        <v>2.759597474617355E-8</v>
+        <v>6.561808760913198E-4</v>
       </c>
       <c r="K40" t="n" s="25">
-        <v>0.8324143879645487</v>
+        <v>0.8918913251261122</v>
       </c>
       <c r="L40" t="n" s="25">
-        <v>3.365974628216923E-4</v>
+        <v>0.8700728130569624</v>
       </c>
       <c r="M40" t="n" s="25">
         <v>3.0158027657970884E-24</v>
@@ -1952,25 +1952,25 @@
         <v>39.0</v>
       </c>
       <c r="E41" t="n" s="25">
-        <v>0.9992612861257367</v>
+        <v>0.9991165418662171</v>
       </c>
       <c r="F41" t="n" s="25">
-        <v>0.9999949180621203</v>
+        <v>0.9999777443159815</v>
       </c>
       <c r="G41" t="n" s="25">
-        <v>0.9999999999202009</v>
+        <v>1.0</v>
       </c>
       <c r="H41" t="n" s="25">
-        <v>0.9999871974121638</v>
+        <v>0.9999458811962675</v>
       </c>
       <c r="I41" t="n" s="25">
-        <v>0.999999999999996</v>
+        <v>1.0</v>
       </c>
       <c r="J41" t="n" s="25">
         <v>1.0</v>
       </c>
       <c r="K41" t="n" s="25">
-        <v>0.9999998120957404</v>
+        <v>1.0</v>
       </c>
       <c r="L41" t="n" s="25">
         <v>1.0</v>
@@ -1987,28 +1987,28 @@
         <v>40.0</v>
       </c>
       <c r="E42" t="n" s="25">
-        <v>0.8008039454656973</v>
+        <v>0.8079781228852596</v>
       </c>
       <c r="F42" t="n" s="25">
-        <v>0.12998720068888842</v>
+        <v>0.16943117444459677</v>
       </c>
       <c r="G42" t="n" s="25">
-        <v>0.004992910385521377</v>
+        <v>0.01580970532382293</v>
       </c>
       <c r="H42" t="n" s="25">
-        <v>0.12440518432398799</v>
+        <v>0.16108974540677734</v>
       </c>
       <c r="I42" t="n" s="25">
-        <v>2.5109803780805036E-5</v>
+        <v>9.839952013435154E-5</v>
       </c>
       <c r="J42" t="n" s="25">
-        <v>6.277397890399693E-16</v>
+        <v>9.666420797592983E-12</v>
       </c>
       <c r="K42" t="n" s="25">
-        <v>2.6049465307576204E-4</v>
+        <v>3.1735021751319256E-4</v>
       </c>
       <c r="L42" t="n" s="25">
-        <v>7.746792471183714E-17</v>
+        <v>1.8611506839177255E-16</v>
       </c>
       <c r="M42" t="n" s="25">
         <v>2.2598824048604298E-38</v>
@@ -2022,28 +2022,28 @@
         <v>41.0</v>
       </c>
       <c r="E43" t="n" s="25">
-        <v>0.9990507614475552</v>
+        <v>0.9990930418389443</v>
       </c>
       <c r="F43" t="n" s="25">
-        <v>0.9906897065595687</v>
+        <v>0.9936375652382657</v>
       </c>
       <c r="G43" t="n" s="25">
-        <v>0.2973393113168089</v>
+        <v>0.4358727415091178</v>
       </c>
       <c r="H43" t="n" s="25">
-        <v>0.9979961314854824</v>
+        <v>0.9985621383712279</v>
       </c>
       <c r="I43" t="n" s="25">
-        <v>0.9914998062122097</v>
+        <v>0.9984767612207937</v>
       </c>
       <c r="J43" t="n" s="25">
-        <v>7.136315122712216E-5</v>
+        <v>0.6557810414795598</v>
       </c>
       <c r="K43" t="n" s="25">
-        <v>0.8724171372917806</v>
+        <v>0.9222162007935704</v>
       </c>
       <c r="L43" t="n" s="25">
-        <v>9.903311330508268E-4</v>
+        <v>0.003605975397477039</v>
       </c>
       <c r="M43" t="n" s="25">
         <v>1.5670984608908203E-21</v>
@@ -2057,28 +2057,28 @@
         <v>42.0</v>
       </c>
       <c r="E44" t="n" s="25">
-        <v>0.9989990688613227</v>
+        <v>0.9990436495075876</v>
       </c>
       <c r="F44" t="n" s="25">
-        <v>0.9831531230767567</v>
+        <v>0.9888176184223004</v>
       </c>
       <c r="G44" t="n" s="25">
-        <v>0.326407356928911</v>
+        <v>0.5511161799336712</v>
       </c>
       <c r="H44" t="n" s="25">
-        <v>0.9943397705692603</v>
+        <v>0.9957804984662378</v>
       </c>
       <c r="I44" t="n" s="25">
-        <v>0.9815303675147542</v>
+        <v>0.9966727623464213</v>
       </c>
       <c r="J44" t="n" s="25">
-        <v>3.4174538515359133E-4</v>
+        <v>0.9999857375661314</v>
       </c>
       <c r="K44" t="n" s="25">
-        <v>0.848303540404921</v>
+        <v>0.9042408257395299</v>
       </c>
       <c r="L44" t="n" s="25">
-        <v>0.012372545158383538</v>
+        <v>0.9963357916945074</v>
       </c>
       <c r="M44" t="n" s="25">
         <v>3.4648819768132463E-18</v>
@@ -2092,28 +2092,28 @@
         <v>43.0</v>
       </c>
       <c r="E45" t="n" s="25">
-        <v>0.9991022957612626</v>
+        <v>0.9991422827140847</v>
       </c>
       <c r="F45" t="n" s="25">
-        <v>0.9957081778617088</v>
+        <v>0.9971634146898484</v>
       </c>
       <c r="G45" t="n" s="25">
-        <v>0.3882999618621447</v>
+        <v>0.5432010153050011</v>
       </c>
       <c r="H45" t="n" s="25">
-        <v>0.9987312267716575</v>
+        <v>0.9990881221538463</v>
       </c>
       <c r="I45" t="n" s="25">
-        <v>0.9966027156923531</v>
+        <v>0.9994939673725531</v>
       </c>
       <c r="J45" t="n" s="25">
-        <v>2.605023940305579E-4</v>
+        <v>0.8876156810696332</v>
       </c>
       <c r="K45" t="n" s="25">
-        <v>0.8703047435135894</v>
+        <v>0.9206883539048123</v>
       </c>
       <c r="L45" t="n" s="25">
-        <v>0.024652020176219345</v>
+        <v>0.9983654811637053</v>
       </c>
       <c r="M45" t="n" s="25">
         <v>3.6402210641366673E-19</v>
@@ -2127,28 +2127,28 @@
         <v>45.0</v>
       </c>
       <c r="E46" t="n" s="25">
-        <v>0.5744654985357933</v>
+        <v>0.5855727711275451</v>
       </c>
       <c r="F46" t="n" s="25">
-        <v>0.002258420352442836</v>
+        <v>0.002784955393111029</v>
       </c>
       <c r="G46" t="n" s="25">
-        <v>3.319968972113806E-10</v>
+        <v>5.266374835841329E-10</v>
       </c>
       <c r="H46" t="n" s="25">
-        <v>0.0012067084543187006</v>
+        <v>0.0013431688340489565</v>
       </c>
       <c r="I46" t="n" s="25">
-        <v>5.713148883879286E-17</v>
+        <v>8.50335269845637E-17</v>
       </c>
       <c r="J46" t="n" s="25">
-        <v>7.898706184925262E-42</v>
+        <v>1.3432250680274074E-41</v>
       </c>
       <c r="K46" t="n" s="25">
-        <v>5.699576625404594E-9</v>
+        <v>6.106756832113996E-9</v>
       </c>
       <c r="L46" t="n" s="25">
-        <v>6.418772107621152E-36</v>
+        <v>8.216848418747975E-36</v>
       </c>
       <c r="M46" t="n" s="25">
         <v>1.3425644521489974E-72</v>
@@ -2162,28 +2162,28 @@
         <v>46.0</v>
       </c>
       <c r="E47" t="n" s="25">
-        <v>0.8397380186856837</v>
+        <v>0.8457781571924464</v>
       </c>
       <c r="F47" t="n" s="25">
-        <v>0.17917132496787685</v>
+        <v>0.22954513854108421</v>
       </c>
       <c r="G47" t="n" s="25">
-        <v>0.0035167020843370365</v>
+        <v>0.01499538438741159</v>
       </c>
       <c r="H47" t="n" s="25">
-        <v>0.1368743266460483</v>
+        <v>0.17276516670087433</v>
       </c>
       <c r="I47" t="n" s="25">
-        <v>3.967409038548407E-7</v>
+        <v>9.836450290180036E-7</v>
       </c>
       <c r="J47" t="n" s="25">
-        <v>3.210254074810027E-20</v>
+        <v>2.2890083320501E-16</v>
       </c>
       <c r="K47" t="n" s="25">
-        <v>4.3951014723263857E-4</v>
+        <v>7.438994959328754E-4</v>
       </c>
       <c r="L47" t="n" s="25">
-        <v>1.284020960731065E-19</v>
+        <v>2.839730990345388E-19</v>
       </c>
       <c r="M47" t="n" s="25">
         <v>1.6610973901266167E-42</v>
@@ -2197,28 +2197,28 @@
         <v>47.0</v>
       </c>
       <c r="E48" t="n" s="25">
-        <v>0.7123877289715882</v>
+        <v>0.7216365388314172</v>
       </c>
       <c r="F48" t="n" s="25">
-        <v>0.03659298426612251</v>
+        <v>0.047364114278939135</v>
       </c>
       <c r="G48" t="n" s="25">
-        <v>3.100569714155724E-4</v>
+        <v>9.395598786759091E-4</v>
       </c>
       <c r="H48" t="n" s="25">
-        <v>0.09386396964431457</v>
+        <v>0.12214341977864804</v>
       </c>
       <c r="I48" t="n" s="25">
-        <v>4.878099956186544E-6</v>
+        <v>1.8528990394817484E-5</v>
       </c>
       <c r="J48" t="n" s="25">
-        <v>2.1243814616707462E-16</v>
+        <v>1.700556731187089E-12</v>
       </c>
       <c r="K48" t="n" s="25">
-        <v>4.681157358465642E-5</v>
+        <v>5.644619215285334E-5</v>
       </c>
       <c r="L48" t="n" s="25">
-        <v>2.443114485781658E-18</v>
+        <v>5.5921127530379095E-18</v>
       </c>
       <c r="M48" t="n" s="25">
         <v>3.978218550848296E-39</v>
@@ -2232,28 +2232,28 @@
         <v>49.0</v>
       </c>
       <c r="E49" t="n" s="25">
-        <v>0.9987908017528341</v>
+        <v>0.9988446477162691</v>
       </c>
       <c r="F49" t="n" s="25">
-        <v>0.9153631892838021</v>
+        <v>0.942487615974426</v>
       </c>
       <c r="G49" t="n" s="25">
-        <v>0.04305136742092847</v>
+        <v>0.07772706228774177</v>
       </c>
       <c r="H49" t="n" s="25">
-        <v>0.9420076549231827</v>
+        <v>0.9532107192577095</v>
       </c>
       <c r="I49" t="n" s="25">
-        <v>0.5889986048884246</v>
+        <v>0.8502280714651277</v>
       </c>
       <c r="J49" t="n" s="25">
-        <v>2.8042268195696514E-10</v>
+        <v>5.823080679787932E-6</v>
       </c>
       <c r="K49" t="n" s="25">
-        <v>0.6289738006418275</v>
+        <v>0.6610974795622562</v>
       </c>
       <c r="L49" t="n" s="25">
-        <v>8.791669796099726E-7</v>
+        <v>2.094660688872971E-6</v>
       </c>
       <c r="M49" t="n" s="25">
         <v>1.913695489031191E-29</v>
@@ -2267,28 +2267,28 @@
         <v>50.0</v>
       </c>
       <c r="E50" t="n" s="25">
-        <v>0.8380853097229516</v>
+        <v>0.8441789733916812</v>
       </c>
       <c r="F50" t="n" s="25">
-        <v>0.1760350058450439</v>
+        <v>0.22552898730946727</v>
       </c>
       <c r="G50" t="n" s="25">
-        <v>1.1641081330387541E-4</v>
+        <v>2.0075988915714275E-4</v>
       </c>
       <c r="H50" t="n" s="25">
-        <v>0.11393829103980715</v>
+        <v>0.1350556493077888</v>
       </c>
       <c r="I50" t="n" s="25">
-        <v>1.3857736440450305E-5</v>
+        <v>4.283461241420684E-5</v>
       </c>
       <c r="J50" t="n" s="25">
-        <v>9.952088606768931E-20</v>
+        <v>1.7251238753058321E-15</v>
       </c>
       <c r="K50" t="n" s="25">
-        <v>0.0016827240318467362</v>
+        <v>0.0019034755126032135</v>
       </c>
       <c r="L50" t="n" s="25">
-        <v>1.8311904336860947E-16</v>
+        <v>3.7519083795726824E-16</v>
       </c>
       <c r="M50" t="n" s="25">
         <v>3.182511282446816E-42</v>
@@ -2302,28 +2302,28 @@
         <v>51.0</v>
       </c>
       <c r="E51" t="n" s="25">
-        <v>0.24333780637987096</v>
+        <v>0.25068213110204846</v>
       </c>
       <c r="F51" t="n" s="25">
-        <v>3.981027563220998E-4</v>
+        <v>4.8762980995034047E-4</v>
       </c>
       <c r="G51" t="n" s="25">
-        <v>1.2150430238024933E-7</v>
+        <v>7.771780476528619E-7</v>
       </c>
       <c r="H51" t="n" s="25">
-        <v>4.7441917566603593E-4</v>
+        <v>5.937981429399692E-4</v>
       </c>
       <c r="I51" t="n" s="25">
-        <v>3.131821476306768E-19</v>
+        <v>4.34636813272225E-19</v>
       </c>
       <c r="J51" t="n" s="25">
-        <v>6.96149223270923E-38</v>
+        <v>3.144795649783254E-37</v>
       </c>
       <c r="K51" t="n" s="25">
-        <v>2.5668582402687254E-12</v>
+        <v>2.954212489424049E-12</v>
       </c>
       <c r="L51" t="n" s="25">
-        <v>1.45632508012006E-41</v>
+        <v>1.8228849588866824E-41</v>
       </c>
       <c r="M51" t="n" s="25">
         <v>5.796071495307956E-68</v>
@@ -2337,28 +2337,28 @@
         <v>52.0</v>
       </c>
       <c r="E52" t="n" s="25">
-        <v>0.9990422737679753</v>
+        <v>0.99908493186602</v>
       </c>
       <c r="F52" t="n" s="25">
-        <v>0.9781313745927115</v>
+        <v>0.985459380974103</v>
       </c>
       <c r="G52" t="n" s="25">
-        <v>0.18177927936960941</v>
+        <v>0.2938783980003423</v>
       </c>
       <c r="H52" t="n" s="25">
-        <v>0.9907520775850214</v>
+        <v>0.9931197551386584</v>
       </c>
       <c r="I52" t="n" s="25">
-        <v>0.9766639606348924</v>
+        <v>0.9957919012945005</v>
       </c>
       <c r="J52" t="n" s="25">
-        <v>1.2136558128535984E-6</v>
+        <v>0.03152290813125834</v>
       </c>
       <c r="K52" t="n" s="25">
-        <v>0.7079921250041061</v>
+        <v>0.7456510232853013</v>
       </c>
       <c r="L52" t="n" s="25">
-        <v>1.087671103017833E-4</v>
+        <v>3.2602170908669855E-4</v>
       </c>
       <c r="M52" t="n" s="25">
         <v>8.306337547665241E-25</v>
@@ -2372,25 +2372,25 @@
         <v>53.0</v>
       </c>
       <c r="E53" t="n" s="25">
-        <v>0.9993584866597034</v>
+        <v>0.9992327733369832</v>
       </c>
       <c r="F53" t="n" s="25">
-        <v>0.9999904517203423</v>
+        <v>0.9999581851859193</v>
       </c>
       <c r="G53" t="n" s="25">
-        <v>0.999996284387409</v>
+        <v>1.0</v>
       </c>
       <c r="H53" t="n" s="25">
-        <v>0.9999397701574421</v>
+        <v>0.9997115511574999</v>
       </c>
       <c r="I53" t="n" s="25">
-        <v>0.9999999719077352</v>
+        <v>1.0</v>
       </c>
       <c r="J53" t="n" s="25">
         <v>1.0</v>
       </c>
       <c r="K53" t="n" s="25">
-        <v>0.9978918435171488</v>
+        <v>1.0</v>
       </c>
       <c r="L53" t="n" s="25">
         <v>1.0</v>
@@ -2407,25 +2407,25 @@
         <v>54.0</v>
       </c>
       <c r="E54" t="n" s="25">
-        <v>0.9993584866597034</v>
+        <v>0.9992327733369832</v>
       </c>
       <c r="F54" t="n" s="25">
-        <v>0.9999971392243888</v>
+        <v>0.9999874715123507</v>
       </c>
       <c r="G54" t="n" s="25">
-        <v>0.9999999176023243</v>
+        <v>1.0</v>
       </c>
       <c r="H54" t="n" s="25">
-        <v>0.99999556166843</v>
+        <v>0.9999787397365469</v>
       </c>
       <c r="I54" t="n" s="25">
-        <v>0.9999999999979815</v>
+        <v>1.0</v>
       </c>
       <c r="J54" t="n" s="25">
         <v>1.0</v>
       </c>
       <c r="K54" t="n" s="25">
-        <v>0.9999936183774181</v>
+        <v>1.0</v>
       </c>
       <c r="L54" t="n" s="25">
         <v>1.0</v>
@@ -2442,28 +2442,28 @@
         <v>55.0</v>
       </c>
       <c r="E55" t="n" s="25">
-        <v>0.9992612861257367</v>
+        <v>0.999294196082906</v>
       </c>
       <c r="F55" t="n" s="25">
-        <v>0.9999074241126653</v>
+        <v>0.9999389013764176</v>
       </c>
       <c r="G55" t="n" s="25">
-        <v>0.9316352658369755</v>
+        <v>0.9706443052310972</v>
       </c>
       <c r="H55" t="n" s="25">
-        <v>0.9999689506090006</v>
+        <v>0.9999792387294061</v>
       </c>
       <c r="I55" t="n" s="25">
-        <v>0.999978347588182</v>
+        <v>0.9999967346235512</v>
       </c>
       <c r="J55" t="n" s="25">
-        <v>0.9629332341216026</v>
+        <v>0.9999999998727052</v>
       </c>
       <c r="K55" t="n" s="25">
-        <v>0.9972455515662343</v>
+        <v>0.9989420496139444</v>
       </c>
       <c r="L55" t="n" s="25">
-        <v>0.9995160872439349</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="M55" t="n" s="25">
         <v>2.0262555536500452E-5</v>
@@ -2477,16 +2477,16 @@
         <v>56.0</v>
       </c>
       <c r="E56" t="n" s="25">
-        <v>0.9992612861257367</v>
+        <v>0.9991165418662171</v>
       </c>
       <c r="F56" t="n" s="25">
-        <v>0.9999997062170045</v>
+        <v>0.9999987133948762</v>
       </c>
       <c r="G56" t="n" s="25">
-        <v>0.9999999999999781</v>
+        <v>1.0</v>
       </c>
       <c r="H56" t="n" s="25">
-        <v>0.9999895610288345</v>
+        <v>0.9999558722854878</v>
       </c>
       <c r="I56" t="n" s="25">
         <v>1.0</v>
@@ -2495,7 +2495,7 @@
         <v>1.0</v>
       </c>
       <c r="K56" t="n" s="25">
-        <v>0.9999993488436147</v>
+        <v>1.0</v>
       </c>
       <c r="L56" t="n" s="25">
         <v>1.0</v>
@@ -2512,28 +2512,28 @@
         <v>57.0</v>
       </c>
       <c r="E57" t="n" s="25">
-        <v>0.9992923581596833</v>
+        <v>0.9993238847836715</v>
       </c>
       <c r="F57" t="n" s="25">
-        <v>0.9999417213925367</v>
+        <v>0.9999615374880496</v>
       </c>
       <c r="G57" t="n" s="25">
-        <v>0.9974476043290684</v>
+        <v>0.9991882347248592</v>
       </c>
       <c r="H57" t="n" s="25">
-        <v>0.9999318124283988</v>
+        <v>0.9999544681470555</v>
       </c>
       <c r="I57" t="n" s="25">
-        <v>0.9999876578494407</v>
+        <v>0.9999980119256826</v>
       </c>
       <c r="J57" t="n" s="25">
-        <v>0.9999152906764968</v>
+        <v>1.0</v>
       </c>
       <c r="K57" t="n" s="25">
-        <v>0.9297013322578881</v>
+        <v>0.9567959735721386</v>
       </c>
       <c r="L57" t="n" s="25">
-        <v>0.935824700262438</v>
+        <v>0.9999978418034574</v>
       </c>
       <c r="M57" t="n" s="25">
         <v>3.101634079000873E-5</v>
@@ -2547,28 +2547,28 @@
         <v>58.0</v>
       </c>
       <c r="E58" t="n" s="25">
-        <v>0.9989990688613227</v>
+        <v>0.9990436495075876</v>
       </c>
       <c r="F58" t="n" s="25">
-        <v>0.9999990823987623</v>
+        <v>0.9999993944165498</v>
       </c>
       <c r="G58" t="n" s="25">
-        <v>0.9999999999912884</v>
+        <v>0.9999999999997741</v>
       </c>
       <c r="H58" t="n" s="25">
-        <v>0.9995907801978414</v>
+        <v>0.9996953505635855</v>
       </c>
       <c r="I58" t="n" s="25">
-        <v>0.9999999999451366</v>
+        <v>0.9999999999787358</v>
       </c>
       <c r="J58" t="n" s="25">
-        <v>0.9999999999982191</v>
+        <v>1.0</v>
       </c>
       <c r="K58" t="n" s="25">
-        <v>0.9751371412428526</v>
+        <v>0.9701123418208621</v>
       </c>
       <c r="L58" t="n" s="25">
-        <v>0.9974192073747251</v>
+        <v>0.9991360989269302</v>
       </c>
       <c r="M58" t="n" s="25">
         <v>0.9995761609582862</v>
@@ -2582,28 +2582,28 @@
         <v>59.0</v>
       </c>
       <c r="E59" t="n" s="25">
-        <v>0.9990914510156967</v>
+        <v>0.9991319206125023</v>
       </c>
       <c r="F59" t="n" s="25">
-        <v>0.9998132900645293</v>
+        <v>0.9998767704467332</v>
       </c>
       <c r="G59" t="n" s="25">
-        <v>0.999998821116695</v>
+        <v>0.999999878250735</v>
       </c>
       <c r="H59" t="n" s="25">
-        <v>0.999215089347457</v>
+        <v>0.9994362142817947</v>
       </c>
       <c r="I59" t="n" s="25">
-        <v>0.9999996257663858</v>
+        <v>0.999999895154426</v>
       </c>
       <c r="J59" t="n" s="25">
-        <v>0.9999999836553958</v>
+        <v>1.0</v>
       </c>
       <c r="K59" t="n" s="25">
-        <v>0.9482987172833985</v>
+        <v>0.961941344757111</v>
       </c>
       <c r="L59" t="n" s="25">
-        <v>0.9753296974278768</v>
+        <v>0.9999989972159938</v>
       </c>
       <c r="M59" t="n" s="25">
         <v>0.5054785886363874</v>
@@ -2617,25 +2617,25 @@
         <v>60.0</v>
       </c>
       <c r="E60" t="n" s="25">
-        <v>0.9992612861257367</v>
+        <v>0.9991165418662171</v>
       </c>
       <c r="F60" t="n" s="25">
-        <v>0.9999997062170045</v>
+        <v>0.9999987133948762</v>
       </c>
       <c r="G60" t="n" s="25">
-        <v>0.9999999999999781</v>
+        <v>1.0</v>
       </c>
       <c r="H60" t="n" s="25">
-        <v>0.9999628075193137</v>
+        <v>0.9998427931782771</v>
       </c>
       <c r="I60" t="n" s="25">
-        <v>0.9999999999999988</v>
+        <v>1.0</v>
       </c>
       <c r="J60" t="n" s="25">
         <v>1.0</v>
       </c>
       <c r="K60" t="n" s="25">
-        <v>0.9994964231498145</v>
+        <v>1.0</v>
       </c>
       <c r="L60" t="n" s="25">
         <v>1.0</v>
@@ -2652,28 +2652,28 @@
         <v>61.0</v>
       </c>
       <c r="E61" t="n" s="25">
-        <v>0.9992612861257367</v>
+        <v>0.999294196082906</v>
       </c>
       <c r="F61" t="n" s="25">
-        <v>0.9999769638830568</v>
+        <v>0.9999847968861338</v>
       </c>
       <c r="G61" t="n" s="25">
-        <v>0.999999540157244</v>
+        <v>0.9999999120609238</v>
       </c>
       <c r="H61" t="n" s="25">
-        <v>0.9999689506090006</v>
+        <v>0.9999792387294061</v>
       </c>
       <c r="I61" t="n" s="25">
-        <v>0.9999999999111292</v>
+        <v>0.9999999999794967</v>
       </c>
       <c r="J61" t="n" s="25">
-        <v>0.9999999953823512</v>
+        <v>1.0</v>
       </c>
       <c r="K61" t="n" s="25">
-        <v>0.999918845286931</v>
+        <v>0.9999664741878704</v>
       </c>
       <c r="L61" t="n" s="25">
-        <v>0.9999926651801796</v>
+        <v>1.0</v>
       </c>
       <c r="M61" t="n" s="25">
         <v>0.9989299833739479</v>
@@ -2687,25 +2687,25 @@
         <v>62.0</v>
       </c>
       <c r="E62" t="n" s="25">
-        <v>0.9992612861257367</v>
+        <v>0.9991165418662171</v>
       </c>
       <c r="F62" t="n" s="25">
-        <v>0.9999975114725684</v>
+        <v>0.9999891017232216</v>
       </c>
       <c r="G62" t="n" s="25">
-        <v>0.9999998956840445</v>
+        <v>1.0</v>
       </c>
       <c r="H62" t="n" s="25">
-        <v>0.99998443095205</v>
+        <v>0.9999341874675148</v>
       </c>
       <c r="I62" t="n" s="25">
-        <v>0.9999999998980724</v>
+        <v>1.0</v>
       </c>
       <c r="J62" t="n" s="25">
         <v>1.0</v>
       </c>
       <c r="K62" t="n" s="25">
-        <v>0.9998930392269068</v>
+        <v>1.0</v>
       </c>
       <c r="L62" t="n" s="25">
         <v>1.0</v>
@@ -2722,25 +2722,25 @@
         <v>63.0</v>
       </c>
       <c r="E63" t="n" s="25">
-        <v>0.9992612861257367</v>
+        <v>0.9991165418662171</v>
       </c>
       <c r="F63" t="n" s="25">
-        <v>0.9999908665684427</v>
+        <v>0.9999600018755644</v>
       </c>
       <c r="G63" t="n" s="25">
-        <v>0.999999994514253</v>
+        <v>1.0</v>
       </c>
       <c r="H63" t="n" s="25">
-        <v>0.9999512294725693</v>
+        <v>0.9997938622801136</v>
       </c>
       <c r="I63" t="n" s="25">
-        <v>0.9999999999708159</v>
+        <v>1.0</v>
       </c>
       <c r="J63" t="n" s="25">
         <v>1.0</v>
       </c>
       <c r="K63" t="n" s="25">
-        <v>0.9990856830196468</v>
+        <v>1.0</v>
       </c>
       <c r="L63" t="n" s="25">
         <v>1.0</v>
@@ -2757,25 +2757,25 @@
         <v>64.0</v>
       </c>
       <c r="E64" t="n" s="25">
-        <v>0.9990914510156967</v>
+        <v>0.9989134652963333</v>
       </c>
       <c r="F64" t="n" s="25">
-        <v>0.9999993618232316</v>
+        <v>0.9999972051461203</v>
       </c>
       <c r="G64" t="n" s="25">
-        <v>0.9999999999986967</v>
+        <v>1.0</v>
       </c>
       <c r="H64" t="n" s="25">
-        <v>0.9999036795498427</v>
+        <v>0.9996812348062574</v>
       </c>
       <c r="I64" t="n" s="25">
-        <v>0.9999999999998141</v>
+        <v>1.0</v>
       </c>
       <c r="J64" t="n" s="25">
         <v>1.0</v>
       </c>
       <c r="K64" t="n" s="25">
-        <v>0.9998324012392663</v>
+        <v>1.0</v>
       </c>
       <c r="L64" t="n" s="25">
         <v>1.0</v>
@@ -2792,25 +2792,25 @@
         <v>65.0</v>
       </c>
       <c r="E65" t="n" s="25">
-        <v>0.9991945711121792</v>
+        <v>0.9990367672539058</v>
       </c>
       <c r="F65" t="n" s="25">
-        <v>0.9999779074381105</v>
+        <v>0.9999133319148013</v>
       </c>
       <c r="G65" t="n" s="25">
-        <v>0.9999998312946454</v>
+        <v>1.0</v>
       </c>
       <c r="H65" t="n" s="25">
-        <v>0.999970528955589</v>
+        <v>0.9998754273825562</v>
       </c>
       <c r="I65" t="n" s="25">
-        <v>0.9999999990985458</v>
+        <v>1.0</v>
       </c>
       <c r="J65" t="n" s="25">
         <v>1.0</v>
       </c>
       <c r="K65" t="n" s="25">
-        <v>0.9998481053986551</v>
+        <v>1.0</v>
       </c>
       <c r="L65" t="n" s="25">
         <v>1.0</v>
@@ -2827,28 +2827,28 @@
         <v>66.0</v>
       </c>
       <c r="E66" t="n" s="25">
-        <v>0.9904290733712912</v>
+        <v>0.9908518591901505</v>
       </c>
       <c r="F66" t="n" s="25">
-        <v>0.6795561316188591</v>
+        <v>0.7556255472872009</v>
       </c>
       <c r="G66" t="n" s="25">
-        <v>0.01862076275982707</v>
+        <v>0.045097696327216094</v>
       </c>
       <c r="H66" t="n" s="25">
-        <v>0.6369056464396134</v>
+        <v>0.6874958991397248</v>
       </c>
       <c r="I66" t="n" s="25">
-        <v>0.10381173511266484</v>
+        <v>0.3095655015663773</v>
       </c>
       <c r="J66" t="n" s="25">
-        <v>1.2238806570723983E-10</v>
+        <v>0.01860609685503673</v>
       </c>
       <c r="K66" t="n" s="25">
-        <v>0.1541469166029742</v>
+        <v>0.17335030522697473</v>
       </c>
       <c r="L66" t="n" s="25">
-        <v>5.540399224778618E-9</v>
+        <v>1.292080620276217E-8</v>
       </c>
       <c r="M66" t="n" s="25">
         <v>2.9518513140989205E-29</v>
@@ -2862,28 +2862,28 @@
         <v>67.0</v>
       </c>
       <c r="E67" t="n" s="25">
-        <v>0.9992612861257367</v>
+        <v>0.999294196082906</v>
       </c>
       <c r="F67" t="n" s="25">
-        <v>0.999837940374962</v>
+        <v>0.9998930406796871</v>
       </c>
       <c r="G67" t="n" s="25">
-        <v>0.7098626240287235</v>
+        <v>0.7710771691918622</v>
       </c>
       <c r="H67" t="n" s="25">
-        <v>0.9999861009548352</v>
+        <v>0.9999907064136037</v>
       </c>
       <c r="I67" t="n" s="25">
-        <v>0.9999957683968997</v>
+        <v>0.999999354390966</v>
       </c>
       <c r="J67" t="n" s="25">
-        <v>0.0785058791607004</v>
+        <v>0.3037435442837229</v>
       </c>
       <c r="K67" t="n" s="25">
-        <v>0.9999175134447953</v>
+        <v>0.9999828271534009</v>
       </c>
       <c r="L67" t="n" s="25">
-        <v>0.9999921330885142</v>
+        <v>1.0</v>
       </c>
       <c r="M67" t="n" s="25">
         <v>5.74863332103366E-7</v>
@@ -2897,25 +2897,25 @@
         <v>68.0</v>
       </c>
       <c r="E68" t="n" s="25">
-        <v>0.999081045291687</v>
+        <v>0.9989010233221353</v>
       </c>
       <c r="F68" t="n" s="25">
-        <v>0.9995566379641986</v>
+        <v>0.9983023180830778</v>
       </c>
       <c r="G68" t="n" s="25">
-        <v>0.9999531534946061</v>
+        <v>1.0</v>
       </c>
       <c r="H68" t="n" s="25">
-        <v>0.9997560531114325</v>
+        <v>0.9990882749155412</v>
       </c>
       <c r="I68" t="n" s="25">
-        <v>0.9999985443098466</v>
+        <v>1.0</v>
       </c>
       <c r="J68" t="n" s="25">
         <v>1.0</v>
       </c>
       <c r="K68" t="n" s="25">
-        <v>0.994917026789872</v>
+        <v>1.0</v>
       </c>
       <c r="L68" t="n" s="25">
         <v>1.0</v>
@@ -2932,28 +2932,28 @@
         <v>69.0</v>
       </c>
       <c r="E69" t="n" s="25">
-        <v>0.8935715186844914</v>
+        <v>0.8978247960583721</v>
       </c>
       <c r="F69" t="n" s="25">
-        <v>0.32254993587399555</v>
+        <v>0.4037278449033516</v>
       </c>
       <c r="G69" t="n" s="25">
-        <v>0.042758532755608765</v>
+        <v>0.16836286878307308</v>
       </c>
       <c r="H69" t="n" s="25">
-        <v>0.16680047043535226</v>
+        <v>0.21296841143010306</v>
       </c>
       <c r="I69" t="n" s="25">
-        <v>1.3456034697495197E-5</v>
+        <v>4.629740406674159E-5</v>
       </c>
       <c r="J69" t="n" s="25">
-        <v>1.0500449759681099E-16</v>
+        <v>3.1998237735062786E-13</v>
       </c>
       <c r="K69" t="n" s="25">
-        <v>1.860942535933047E-4</v>
+        <v>2.25795105076176E-4</v>
       </c>
       <c r="L69" t="n" s="25">
-        <v>4.090846041656707E-18</v>
+        <v>8.97322694534367E-18</v>
       </c>
       <c r="M69" t="n" s="25">
         <v>8.547345227445463E-39</v>
@@ -2967,28 +2967,28 @@
         <v>70.0</v>
       </c>
       <c r="E70" t="n" s="25">
-        <v>0.9989990688613227</v>
+        <v>0.9990436495075876</v>
       </c>
       <c r="F70" t="n" s="25">
-        <v>0.9846160912713838</v>
+        <v>0.9897937932089281</v>
       </c>
       <c r="G70" t="n" s="25">
-        <v>0.5163693392322637</v>
+        <v>0.7794296544865638</v>
       </c>
       <c r="H70" t="n" s="25">
-        <v>0.9962244703962657</v>
+        <v>0.9971868329788117</v>
       </c>
       <c r="I70" t="n" s="25">
-        <v>0.9821457502618601</v>
+        <v>0.9967485595705313</v>
       </c>
       <c r="J70" t="n" s="25">
-        <v>0.07263190390293803</v>
+        <v>0.9999999999918368</v>
       </c>
       <c r="K70" t="n" s="25">
-        <v>0.9332724783908215</v>
+        <v>0.9703764802754601</v>
       </c>
       <c r="L70" t="n" s="25">
-        <v>0.517453140359446</v>
+        <v>0.9999999940764084</v>
       </c>
       <c r="M70" t="n" s="25">
         <v>6.162521522306197E-12</v>
@@ -3002,28 +3002,28 @@
         <v>71.0</v>
       </c>
       <c r="E71" t="n" s="25">
-        <v>0.05254178825544757</v>
+        <v>0.05410530289156033</v>
       </c>
       <c r="F71" t="n" s="25">
-        <v>0.0026839554637366845</v>
+        <v>0.003633763734295299</v>
       </c>
       <c r="G71" t="n" s="25">
-        <v>5.420040500755498E-5</v>
+        <v>1.2698090251335456E-4</v>
       </c>
       <c r="H71" t="n" s="25">
-        <v>0.0010749384698689394</v>
+        <v>0.0014794761460300554</v>
       </c>
       <c r="I71" t="n" s="25">
-        <v>2.974333763997543E-8</v>
+        <v>1.5819423453194926E-7</v>
       </c>
       <c r="J71" t="n" s="25">
-        <v>8.841719128477957E-17</v>
+        <v>8.350797282551145E-13</v>
       </c>
       <c r="K71" t="n" s="25">
-        <v>1.0442606495168851E-5</v>
+        <v>3.571581404125246E-5</v>
       </c>
       <c r="L71" t="n" s="25">
-        <v>5.2891249672249673E-14</v>
+        <v>0.0016498745319594584</v>
       </c>
       <c r="M71" t="n" s="25">
         <v>1.5940936498053334E-30</v>
@@ -3037,28 +3037,28 @@
         <v>72.0</v>
       </c>
       <c r="E72" t="n" s="25">
-        <v>0.9912258264167488</v>
+        <v>0.9916137145048863</v>
       </c>
       <c r="F72" t="n" s="25">
-        <v>0.7282367210905489</v>
+        <v>0.796215418535955</v>
       </c>
       <c r="G72" t="n" s="25">
-        <v>0.49939421906980314</v>
+        <v>0.8816882830858934</v>
       </c>
       <c r="H72" t="n" s="25">
-        <v>0.7459872535742234</v>
+        <v>0.7921874311379071</v>
       </c>
       <c r="I72" t="n" s="25">
-        <v>0.43281967073350053</v>
+        <v>0.7755426066427027</v>
       </c>
       <c r="J72" t="n" s="25">
-        <v>0.3855220833760456</v>
+        <v>1.0</v>
       </c>
       <c r="K72" t="n" s="25">
-        <v>0.34450424339953917</v>
+        <v>0.46438261404976533</v>
       </c>
       <c r="L72" t="n" s="25">
-        <v>1.4607074753450033E-4</v>
+        <v>0.7347101940422514</v>
       </c>
       <c r="M72" t="n" s="25">
         <v>1.4474875498188639E-11</v>
@@ -3072,28 +3072,28 @@
         <v>73.0</v>
       </c>
       <c r="E73" t="n" s="25">
-        <v>0.992947923756519</v>
+        <v>0.993260088508286</v>
       </c>
       <c r="F73" t="n" s="25">
-        <v>0.7395608364564317</v>
+        <v>0.8054417440016551</v>
       </c>
       <c r="G73" t="n" s="25">
-        <v>0.08610297664762573</v>
+        <v>0.14630724772498455</v>
       </c>
       <c r="H73" t="n" s="25">
-        <v>0.7506051775997811</v>
+        <v>0.8075563306412998</v>
       </c>
       <c r="I73" t="n" s="25">
-        <v>0.6614857878238184</v>
+        <v>0.9172480141503985</v>
       </c>
       <c r="J73" t="n" s="25">
-        <v>7.577696032474243E-10</v>
+        <v>3.2805721185581666E-9</v>
       </c>
       <c r="K73" t="n" s="25">
-        <v>0.06037434559471889</v>
+        <v>0.0736694076069814</v>
       </c>
       <c r="L73" t="n" s="25">
-        <v>4.666525064966271E-9</v>
+        <v>1.3992607000217415E-8</v>
       </c>
       <c r="M73" t="n" s="25">
         <v>2.7872106718791557E-31</v>
@@ -3107,25 +3107,25 @@
         <v>74.0</v>
       </c>
       <c r="E74" t="n" s="25">
-        <v>0.9989990688613227</v>
+        <v>0.9988030070615418</v>
       </c>
       <c r="F74" t="n" s="25">
-        <v>0.9999990823987623</v>
+        <v>0.9999959814285257</v>
       </c>
       <c r="G74" t="n" s="25">
-        <v>0.9999999999912884</v>
+        <v>1.0</v>
       </c>
       <c r="H74" t="n" s="25">
-        <v>0.9997210606059247</v>
+        <v>0.9991832006763325</v>
       </c>
       <c r="I74" t="n" s="25">
-        <v>0.9999999999851495</v>
+        <v>1.0</v>
       </c>
       <c r="J74" t="n" s="25">
         <v>1.0</v>
       </c>
       <c r="K74" t="n" s="25">
-        <v>0.9971644721368537</v>
+        <v>1.0</v>
       </c>
       <c r="L74" t="n" s="25">
         <v>1.0</v>
@@ -3142,25 +3142,25 @@
         <v>75.0</v>
       </c>
       <c r="E75" t="n" s="25">
-        <v>0.9992612861257367</v>
+        <v>0.9991165418662171</v>
       </c>
       <c r="F75" t="n" s="25">
-        <v>0.9999667352490874</v>
+        <v>0.9998543352358826</v>
       </c>
       <c r="G75" t="n" s="25">
-        <v>0.9999837845681634</v>
+        <v>1.0</v>
       </c>
       <c r="H75" t="n" s="25">
-        <v>0.9999791814276808</v>
+        <v>0.9999119984882625</v>
       </c>
       <c r="I75" t="n" s="25">
-        <v>0.9999999990930494</v>
+        <v>1.0</v>
       </c>
       <c r="J75" t="n" s="25">
         <v>1.0</v>
       </c>
       <c r="K75" t="n" s="25">
-        <v>0.9999784084356614</v>
+        <v>1.0</v>
       </c>
       <c r="L75" t="n" s="25">
         <v>1.0</v>
@@ -3177,25 +3177,25 @@
         <v>76.0</v>
       </c>
       <c r="E76" t="n" s="25">
-        <v>0.9990914510156967</v>
+        <v>0.9989134652963333</v>
       </c>
       <c r="F76" t="n" s="25">
-        <v>0.995641169468445</v>
+        <v>0.9811878534020879</v>
       </c>
       <c r="G76" t="n" s="25">
-        <v>0.5839797293620315</v>
+        <v>1.0</v>
       </c>
       <c r="H76" t="n" s="25">
-        <v>0.9989132036117151</v>
+        <v>0.9964115392655564</v>
       </c>
       <c r="I76" t="n" s="25">
-        <v>0.9960139305121508</v>
+        <v>1.0</v>
       </c>
       <c r="J76" t="n" s="25">
         <v>1.0</v>
       </c>
       <c r="K76" t="n" s="25">
-        <v>0.9404338394289937</v>
+        <v>1.0</v>
       </c>
       <c r="L76" t="n" s="25">
         <v>1.0</v>
@@ -3212,28 +3212,28 @@
         <v>77.0</v>
       </c>
       <c r="E77" t="n" s="25">
-        <v>0.9914182166327893</v>
+        <v>0.9917976123154182</v>
       </c>
       <c r="F77" t="n" s="25">
-        <v>0.6772006570992029</v>
+        <v>0.7536154042497604</v>
       </c>
       <c r="G77" t="n" s="25">
-        <v>0.014826302082568273</v>
+        <v>0.0254288762117716</v>
       </c>
       <c r="H77" t="n" s="25">
-        <v>0.6373978071908569</v>
+        <v>0.6958140771300814</v>
       </c>
       <c r="I77" t="n" s="25">
-        <v>0.07008976353459186</v>
+        <v>0.23200975061186935</v>
       </c>
       <c r="J77" t="n" s="25">
-        <v>9.428231278206803E-14</v>
+        <v>3.192668050227138E-13</v>
       </c>
       <c r="K77" t="n" s="25">
-        <v>0.08236000504166623</v>
+        <v>0.09583157754441317</v>
       </c>
       <c r="L77" t="n" s="25">
-        <v>8.384723156347145E-11</v>
+        <v>2.0429366451831835E-10</v>
       </c>
       <c r="M77" t="n" s="25">
         <v>8.331608075235104E-36</v>
@@ -3247,28 +3247,28 @@
         <v>78.0</v>
       </c>
       <c r="E78" t="n" s="25">
-        <v>0.9987908017528341</v>
+        <v>0.9988446477162691</v>
       </c>
       <c r="F78" t="n" s="25">
-        <v>0.9999310580742411</v>
+        <v>0.9999544997834745</v>
       </c>
       <c r="G78" t="n" s="25">
-        <v>0.9995741726743654</v>
+        <v>0.9999752326225173</v>
       </c>
       <c r="H78" t="n" s="25">
-        <v>0.9964821574623373</v>
+        <v>0.9971930973826261</v>
       </c>
       <c r="I78" t="n" s="25">
-        <v>0.9940098293284516</v>
+        <v>0.9982999143593996</v>
       </c>
       <c r="J78" t="n" s="25">
-        <v>0.9931364064162888</v>
+        <v>0.9999999999999979</v>
       </c>
       <c r="K78" t="n" s="25">
-        <v>0.6571193609828055</v>
+        <v>0.6795315541701007</v>
       </c>
       <c r="L78" t="n" s="25">
-        <v>0.28514324681731956</v>
+        <v>0.4872734304980781</v>
       </c>
       <c r="M78" t="n" s="25">
         <v>9.898593922618603E-8</v>
@@ -3282,28 +3282,28 @@
         <v>79.0</v>
       </c>
       <c r="E79" t="n" s="25">
-        <v>0.9992196587541278</v>
+        <v>0.9992544175244477</v>
       </c>
       <c r="F79" t="n" s="25">
-        <v>0.9993135697059193</v>
+        <v>0.9995468509042674</v>
       </c>
       <c r="G79" t="n" s="25">
-        <v>0.99779081398428</v>
+        <v>0.9996202045405918</v>
       </c>
       <c r="H79" t="n" s="25">
-        <v>0.9974146947028855</v>
+        <v>0.9982090679728342</v>
       </c>
       <c r="I79" t="n" s="25">
-        <v>0.9994023257335464</v>
+        <v>0.999881229720823</v>
       </c>
       <c r="J79" t="n" s="25">
-        <v>0.9999167407936359</v>
+        <v>1.0</v>
       </c>
       <c r="K79" t="n" s="25">
-        <v>0.6010716190568155</v>
+        <v>0.655933991616683</v>
       </c>
       <c r="L79" t="n" s="25">
-        <v>0.031813638812786024</v>
+        <v>0.1012572485658165</v>
       </c>
       <c r="M79" t="n" s="25">
         <v>3.1545499810051316E-8</v>
@@ -3317,28 +3317,28 @@
         <v>80.0</v>
       </c>
       <c r="E80" t="n" s="25">
-        <v>0.9947553421113411</v>
+        <v>0.994987986561958</v>
       </c>
       <c r="F80" t="n" s="25">
-        <v>0.9172653235135276</v>
+        <v>0.9419047981586145</v>
       </c>
       <c r="G80" t="n" s="25">
-        <v>0.14481490618952508</v>
+        <v>0.2357736035839538</v>
       </c>
       <c r="H80" t="n" s="25">
-        <v>0.960948364686511</v>
+        <v>0.9716440553692736</v>
       </c>
       <c r="I80" t="n" s="25">
-        <v>0.9659353700671779</v>
+        <v>0.9946944136756977</v>
       </c>
       <c r="J80" t="n" s="25">
-        <v>5.655582402084337E-6</v>
+        <v>0.14480163009339328</v>
       </c>
       <c r="K80" t="n" s="25">
-        <v>0.6097912058113175</v>
+        <v>0.7316384570207659</v>
       </c>
       <c r="L80" t="n" s="25">
-        <v>0.0010150917874914105</v>
+        <v>0.9617765696732957</v>
       </c>
       <c r="M80" t="n" s="25">
         <v>1.3356994519943323E-21</v>
@@ -3352,25 +3352,25 @@
         <v>81.0</v>
       </c>
       <c r="E81" t="n" s="25">
-        <v>0.05214053541956365</v>
+        <v>0.04642886670496576</v>
       </c>
       <c r="F81" t="n" s="25">
-        <v>0.002198159349036692</v>
+        <v>8.3547960996191E-4</v>
       </c>
       <c r="G81" t="n" s="25">
-        <v>3.9330294256679073E-4</v>
+        <v>1.0</v>
       </c>
       <c r="H81" t="n" s="25">
-        <v>8.911976386671951E-4</v>
+        <v>3.201175545262545E-4</v>
       </c>
       <c r="I81" t="n" s="25">
-        <v>2.7972836147345642E-8</v>
+        <v>1.0</v>
       </c>
       <c r="J81" t="n" s="25">
         <v>1.0</v>
       </c>
       <c r="K81" t="n" s="25">
-        <v>1.6304922111732804E-5</v>
+        <v>1.0</v>
       </c>
       <c r="L81" t="n" s="25">
         <v>1.0</v>
@@ -3387,28 +3387,28 @@
         <v>82.0</v>
       </c>
       <c r="E82" t="n" s="25">
-        <v>0.9989990688613227</v>
+        <v>0.9990436495075876</v>
       </c>
       <c r="F82" t="n" s="25">
-        <v>0.9830944309164982</v>
+        <v>0.9887784353261823</v>
       </c>
       <c r="G82" t="n" s="25">
-        <v>0.32931596525471374</v>
+        <v>0.557192041132003</v>
       </c>
       <c r="H82" t="n" s="25">
-        <v>0.9917169487612278</v>
+        <v>0.9938211287557048</v>
       </c>
       <c r="I82" t="n" s="25">
-        <v>0.981511626289819</v>
+        <v>0.9966704765525685</v>
       </c>
       <c r="J82" t="n" s="25">
-        <v>1.7980260577709427E-4</v>
+        <v>0.9999726044617322</v>
       </c>
       <c r="K82" t="n" s="25">
-        <v>0.6971358491027009</v>
+        <v>0.7351452477234627</v>
       </c>
       <c r="L82" t="n" s="25">
-        <v>6.071500387232117E-4</v>
+        <v>0.0018147089191538164</v>
       </c>
       <c r="M82" t="n" s="25">
         <v>1.787284620535408E-20</v>
@@ -3422,28 +3422,28 @@
         <v>83.0</v>
       </c>
       <c r="E83" t="n" s="25">
-        <v>0.9989990688613227</v>
+        <v>0.9990436495075876</v>
       </c>
       <c r="F83" t="n" s="25">
-        <v>0.9819609413641635</v>
+        <v>0.9880214049895982</v>
       </c>
       <c r="G83" t="n" s="25">
-        <v>0.18177945350846686</v>
+        <v>0.2938785599812437</v>
       </c>
       <c r="H83" t="n" s="25">
-        <v>0.9917169487612278</v>
+        <v>0.9938211287557048</v>
       </c>
       <c r="I83" t="n" s="25">
-        <v>0.9815082250157697</v>
+        <v>0.9966700618670401</v>
       </c>
       <c r="J83" t="n" s="25">
-        <v>2.501425504305147E-6</v>
+        <v>0.06257470437979058</v>
       </c>
       <c r="K83" t="n" s="25">
-        <v>0.6971051531045412</v>
+        <v>0.7351263744167347</v>
       </c>
       <c r="L83" t="n" s="25">
-        <v>1.5185665951317057E-4</v>
+        <v>4.5429554041481735E-4</v>
       </c>
       <c r="M83" t="n" s="25">
         <v>3.297816175103146E-24</v>
@@ -3457,25 +3457,25 @@
         <v>84.0</v>
       </c>
       <c r="E84" t="n" s="25">
-        <v>0.9993584866597034</v>
+        <v>0.9992327733369832</v>
       </c>
       <c r="F84" t="n" s="25">
-        <v>0.9999988977970082</v>
+        <v>0.9999951729808586</v>
       </c>
       <c r="G84" t="n" s="25">
-        <v>0.9999999980441813</v>
+        <v>1.0</v>
       </c>
       <c r="H84" t="n" s="25">
-        <v>0.9999895566146154</v>
+        <v>0.9999499757808052</v>
       </c>
       <c r="I84" t="n" s="25">
-        <v>0.999999999993433</v>
+        <v>1.0</v>
       </c>
       <c r="J84" t="n" s="25">
         <v>1.0</v>
       </c>
       <c r="K84" t="n" s="25">
-        <v>0.9991629048588412</v>
+        <v>1.0</v>
       </c>
       <c r="L84" t="n" s="25">
         <v>1.0</v>
@@ -3492,25 +3492,25 @@
         <v>85.0</v>
       </c>
       <c r="E85" t="n" s="25">
-        <v>0.9989990688613227</v>
+        <v>0.9988030070615418</v>
       </c>
       <c r="F85" t="n" s="25">
-        <v>0.9999990823987623</v>
+        <v>0.9999959814285257</v>
       </c>
       <c r="G85" t="n" s="25">
-        <v>0.9999999999912884</v>
+        <v>1.0</v>
       </c>
       <c r="H85" t="n" s="25">
-        <v>0.9998142743894936</v>
+        <v>0.9994560544867048</v>
       </c>
       <c r="I85" t="n" s="25">
-        <v>0.9999999999961092</v>
+        <v>1.0</v>
       </c>
       <c r="J85" t="n" s="25">
         <v>1.0</v>
       </c>
       <c r="K85" t="n" s="25">
-        <v>0.9996931334938806</v>
+        <v>1.0</v>
       </c>
       <c r="L85" t="n" s="25">
         <v>1.0</v>
@@ -3527,28 +3527,28 @@
         <v>86.0</v>
       </c>
       <c r="E86" t="n" s="25">
-        <v>0.9991756368707945</v>
+        <v>0.999212359524105</v>
       </c>
       <c r="F86" t="n" s="25">
-        <v>0.9999789210182987</v>
+        <v>0.999986088543199</v>
       </c>
       <c r="G86" t="n" s="25">
-        <v>0.9999992478379878</v>
+        <v>0.99999989585058</v>
       </c>
       <c r="H86" t="n" s="25">
-        <v>0.9998495167292063</v>
+        <v>0.9998957429359728</v>
       </c>
       <c r="I86" t="n" s="25">
-        <v>0.9999999662025593</v>
+        <v>0.9999999914762415</v>
       </c>
       <c r="J86" t="n" s="25">
-        <v>0.99999996843312</v>
+        <v>1.0</v>
       </c>
       <c r="K86" t="n" s="25">
-        <v>0.9773538275123429</v>
+        <v>0.9826922317833291</v>
       </c>
       <c r="L86" t="n" s="25">
-        <v>0.9930467019228778</v>
+        <v>0.9999997611361839</v>
       </c>
       <c r="M86" t="n" s="25">
         <v>0.5509988110141046</v>
@@ -3562,25 +3562,25 @@
         <v>87.0</v>
       </c>
       <c r="E87" t="n" s="25">
-        <v>0.9988995972197205</v>
+        <v>0.9986840766393092</v>
       </c>
       <c r="F87" t="n" s="25">
-        <v>0.9999844453618442</v>
+        <v>0.9999318829020123</v>
       </c>
       <c r="G87" t="n" s="25">
-        <v>0.9999999939840335</v>
+        <v>1.0</v>
       </c>
       <c r="H87" t="n" s="25">
-        <v>0.9987038934517164</v>
+        <v>0.9966404518925616</v>
       </c>
       <c r="I87" t="n" s="25">
-        <v>0.999999957904069</v>
+        <v>1.0</v>
       </c>
       <c r="J87" t="n" s="25">
         <v>1.0</v>
       </c>
       <c r="K87" t="n" s="25">
-        <v>0.981332136792971</v>
+        <v>1.0</v>
       </c>
       <c r="L87" t="n" s="25">
         <v>1.0</v>
@@ -3597,28 +3597,28 @@
         <v>88.0</v>
       </c>
       <c r="E88" t="n" s="25">
-        <v>0.012338572020197454</v>
+        <v>0.012657082736138884</v>
       </c>
       <c r="F88" t="n" s="25">
-        <v>4.579065480111406E-5</v>
+        <v>5.9474891621304593E-5</v>
       </c>
       <c r="G88" t="n" s="25">
-        <v>1.7454582610165527E-6</v>
+        <v>1.2120359448617422E-5</v>
       </c>
       <c r="H88" t="n" s="25">
-        <v>3.5072227440104204E-5</v>
+        <v>4.6446428248243476E-5</v>
       </c>
       <c r="I88" t="n" s="25">
-        <v>2.913655581803462E-11</v>
+        <v>1.4604129196651096E-10</v>
       </c>
       <c r="J88" t="n" s="25">
-        <v>6.999083205163413E-13</v>
+        <v>0.9999999999978014</v>
       </c>
       <c r="K88" t="n" s="25">
-        <v>1.5500969744223087E-8</v>
+        <v>1.863661125783353E-8</v>
       </c>
       <c r="L88" t="n" s="25">
-        <v>9.527767547494424E-20</v>
+        <v>2.6832194534644234E-19</v>
       </c>
       <c r="M88" t="n" s="25">
         <v>2.4977352114538565E-28</v>
@@ -3632,28 +3632,28 @@
         <v>89.0</v>
       </c>
       <c r="E89" t="n" s="25">
-        <v>0.9991756368707945</v>
+        <v>0.999212353950541</v>
       </c>
       <c r="F89" t="n" s="25">
-        <v>0.9994326374676378</v>
+        <v>0.9996254645345606</v>
       </c>
       <c r="G89" t="n" s="25">
-        <v>0.9999720664049687</v>
+        <v>0.9999960399475006</v>
       </c>
       <c r="H89" t="n" s="25">
-        <v>0.9980253053398608</v>
+        <v>0.9986310553379502</v>
       </c>
       <c r="I89" t="n" s="25">
-        <v>0.999992297268676</v>
+        <v>0.999997859252008</v>
       </c>
       <c r="J89" t="n" s="25">
-        <v>0.9999994058202447</v>
+        <v>1.0</v>
       </c>
       <c r="K89" t="n" s="25">
-        <v>0.9631750441707343</v>
+        <v>0.9806625848441125</v>
       </c>
       <c r="L89" t="n" s="25">
-        <v>0.9915464392797556</v>
+        <v>0.9999999998236521</v>
       </c>
       <c r="M89" t="n" s="25">
         <v>0.5755918530458941</v>
@@ -3667,25 +3667,25 @@
         <v>90.0</v>
       </c>
       <c r="E90" t="n" s="25">
-        <v>0.9993584866597034</v>
+        <v>0.9992327733369832</v>
       </c>
       <c r="F90" t="n" s="25">
-        <v>0.9999952660458776</v>
+        <v>0.9999792682410735</v>
       </c>
       <c r="G90" t="n" s="25">
-        <v>0.9999950253225662</v>
+        <v>1.0</v>
       </c>
       <c r="H90" t="n" s="25">
-        <v>0.9999891381890671</v>
+        <v>0.9999479715887849</v>
       </c>
       <c r="I90" t="n" s="25">
-        <v>0.9999999969883095</v>
+        <v>1.0</v>
       </c>
       <c r="J90" t="n" s="25">
         <v>1.0</v>
       </c>
       <c r="K90" t="n" s="25">
-        <v>0.9975477958779256</v>
+        <v>1.0</v>
       </c>
       <c r="L90" t="n" s="25">
         <v>1.0</v>
@@ -3702,28 +3702,28 @@
         <v>91.0</v>
       </c>
       <c r="E91" t="n" s="25">
-        <v>0.9989990688613227</v>
+        <v>0.9990436427413272</v>
       </c>
       <c r="F91" t="n" s="25">
-        <v>0.9590076589019396</v>
+        <v>0.9725623684294112</v>
       </c>
       <c r="G91" t="n" s="25">
-        <v>0.3303377140800883</v>
+        <v>0.5542642044863877</v>
       </c>
       <c r="H91" t="n" s="25">
-        <v>0.9607503279843453</v>
+        <v>0.9704856546801833</v>
       </c>
       <c r="I91" t="n" s="25">
-        <v>0.9117008653741715</v>
+        <v>0.9804244985428702</v>
       </c>
       <c r="J91" t="n" s="25">
-        <v>7.495998073836504E-7</v>
+        <v>0.011266576136585299</v>
       </c>
       <c r="K91" t="n" s="25">
-        <v>0.47931801140630714</v>
+        <v>0.5260878186545094</v>
       </c>
       <c r="L91" t="n" s="25">
-        <v>8.933885508776806E-6</v>
+        <v>2.431677053160898E-5</v>
       </c>
       <c r="M91" t="n" s="25">
         <v>3.576700517137557E-25</v>
@@ -3737,25 +3737,25 @@
         <v>92.0</v>
       </c>
       <c r="E92" t="n" s="25">
-        <v>0.9919646742851658</v>
+        <v>0.9904039550055426</v>
       </c>
       <c r="F92" t="n" s="25">
-        <v>0.9986818159606842</v>
+        <v>0.9949649955745424</v>
       </c>
       <c r="G92" t="n" s="25">
-        <v>0.9999995819811105</v>
+        <v>1.0</v>
       </c>
       <c r="H92" t="n" s="25">
-        <v>0.9638766177730557</v>
+        <v>0.9010624632640137</v>
       </c>
       <c r="I92" t="n" s="25">
-        <v>0.9999889868627162</v>
+        <v>1.0</v>
       </c>
       <c r="J92" t="n" s="25">
         <v>1.0</v>
       </c>
       <c r="K92" t="n" s="25">
-        <v>0.43194112202482676</v>
+        <v>1.0</v>
       </c>
       <c r="L92" t="n" s="25">
         <v>1.0</v>
@@ -3772,28 +3772,28 @@
         <v>93.0</v>
       </c>
       <c r="E93" t="n" s="25">
-        <v>0.9992923581596833</v>
+        <v>0.9993238799987574</v>
       </c>
       <c r="F93" t="n" s="25">
-        <v>0.9997929366027748</v>
+        <v>0.9998633270957568</v>
       </c>
       <c r="G93" t="n" s="25">
-        <v>0.9598963197181126</v>
+        <v>0.9889487314478255</v>
       </c>
       <c r="H93" t="n" s="25">
-        <v>0.999398760622715</v>
+        <v>0.9995984290996213</v>
       </c>
       <c r="I93" t="n" s="25">
-        <v>0.9994045548928713</v>
+        <v>0.9999278534522392</v>
       </c>
       <c r="J93" t="n" s="25">
-        <v>0.5903993478591412</v>
+        <v>0.9999999913066963</v>
       </c>
       <c r="K93" t="n" s="25">
-        <v>0.6168396709052179</v>
+        <v>0.6782322778814147</v>
       </c>
       <c r="L93" t="n" s="25">
-        <v>0.010553231455536854</v>
+        <v>0.03963208368858275</v>
       </c>
       <c r="M93" t="n" s="25">
         <v>1.4710913306303217E-14</v>
@@ -3807,25 +3807,25 @@
         <v>94.0</v>
       </c>
       <c r="E94" t="n" s="25">
-        <v>0.9989990688613227</v>
+        <v>0.9988030070615418</v>
       </c>
       <c r="F94" t="n" s="25">
-        <v>0.9999990823987623</v>
+        <v>0.9999959814285257</v>
       </c>
       <c r="G94" t="n" s="25">
-        <v>0.9999999999912884</v>
+        <v>1.0</v>
       </c>
       <c r="H94" t="n" s="25">
-        <v>0.9997210606059247</v>
+        <v>0.9991832006763325</v>
       </c>
       <c r="I94" t="n" s="25">
-        <v>0.9999999999851495</v>
+        <v>1.0</v>
       </c>
       <c r="J94" t="n" s="25">
         <v>1.0</v>
       </c>
       <c r="K94" t="n" s="25">
-        <v>0.9971644721368537</v>
+        <v>1.0</v>
       </c>
       <c r="L94" t="n" s="25">
         <v>1.0</v>
@@ -3842,28 +3842,28 @@
         <v>95.0</v>
       </c>
       <c r="E95" t="n" s="25">
-        <v>0.9992612861257367</v>
+        <v>0.9992941910880313</v>
       </c>
       <c r="F95" t="n" s="25">
-        <v>0.9996703233435946</v>
+        <v>0.9997823867218287</v>
       </c>
       <c r="G95" t="n" s="25">
-        <v>0.9201948765167828</v>
+        <v>0.9667164448607461</v>
       </c>
       <c r="H95" t="n" s="25">
-        <v>0.9995863747398582</v>
+        <v>0.9997233754999704</v>
       </c>
       <c r="I95" t="n" s="25">
-        <v>0.9992092768854614</v>
+        <v>0.9999039745545624</v>
       </c>
       <c r="J95" t="n" s="25">
-        <v>0.09323313893492295</v>
+        <v>0.9995707191062981</v>
       </c>
       <c r="K95" t="n" s="25">
-        <v>0.9075629974169231</v>
+        <v>0.9615759443594617</v>
       </c>
       <c r="L95" t="n" s="25">
-        <v>0.7824206871393226</v>
+        <v>0.9999999948729561</v>
       </c>
       <c r="M95" t="n" s="25">
         <v>2.01439470226036E-12</v>
@@ -3877,25 +3877,25 @@
         <v>96.0</v>
       </c>
       <c r="E96" t="n" s="25">
-        <v>0.9992612861257367</v>
+        <v>0.9991165418662171</v>
       </c>
       <c r="F96" t="n" s="25">
-        <v>0.9999181594871551</v>
+        <v>0.9996416830961774</v>
       </c>
       <c r="G96" t="n" s="25">
-        <v>0.9999933627923566</v>
+        <v>1.0</v>
       </c>
       <c r="H96" t="n" s="25">
-        <v>0.9843752713654105</v>
+        <v>0.9371196160301706</v>
       </c>
       <c r="I96" t="n" s="25">
-        <v>0.9989789710216792</v>
+        <v>1.0</v>
       </c>
       <c r="J96" t="n" s="25">
         <v>1.0</v>
       </c>
       <c r="K96" t="n" s="25">
-        <v>0.7478019115959231</v>
+        <v>1.0</v>
       </c>
       <c r="L96" t="n" s="25">
         <v>1.0</v>
@@ -3912,25 +3912,25 @@
         <v>97.0</v>
       </c>
       <c r="E97" t="n" s="25">
-        <v>0.9987908017528341</v>
+        <v>0.9985540037638162</v>
       </c>
       <c r="F97" t="n" s="25">
-        <v>0.9999980651573475</v>
+        <v>0.9999915265188809</v>
       </c>
       <c r="G97" t="n" s="25">
-        <v>0.9999999992271364</v>
+        <v>1.0</v>
       </c>
       <c r="H97" t="n" s="25">
-        <v>0.9989643609729629</v>
+        <v>0.9976184459938552</v>
       </c>
       <c r="I97" t="n" s="25">
-        <v>0.9999999874895829</v>
+        <v>1.0</v>
       </c>
       <c r="J97" t="n" s="25">
         <v>1.0</v>
       </c>
       <c r="K97" t="n" s="25">
-        <v>0.9917413568970627</v>
+        <v>1.0</v>
       </c>
       <c r="L97" t="n" s="25">
         <v>1.0</v>
@@ -3947,28 +3947,28 @@
         <v>98.0</v>
       </c>
       <c r="E98" t="n" s="25">
-        <v>0.9993584866597034</v>
+        <v>0.99938704174854</v>
       </c>
       <c r="F98" t="n" s="25">
-        <v>0.9998784599643596</v>
+        <v>0.9999197515249252</v>
       </c>
       <c r="G98" t="n" s="25">
-        <v>0.9975279970867735</v>
+        <v>0.9996404782718541</v>
       </c>
       <c r="H98" t="n" s="25">
-        <v>0.9963652655073699</v>
+        <v>0.9976545616046607</v>
       </c>
       <c r="I98" t="n" s="25">
-        <v>0.9970176970103094</v>
+        <v>0.999589360846277</v>
       </c>
       <c r="J98" t="n" s="25">
-        <v>0.8697004692943705</v>
+        <v>0.9999999820714924</v>
       </c>
       <c r="K98" t="n" s="25">
-        <v>0.46004193116595027</v>
+        <v>0.6170304844136444</v>
       </c>
       <c r="L98" t="n" s="25">
-        <v>0.026198743081584618</v>
+        <v>0.9900731477823529</v>
       </c>
       <c r="M98" t="n" s="25">
         <v>2.90604489871873E-11</v>
@@ -3982,25 +3982,25 @@
         <v>99.0</v>
       </c>
       <c r="E99" t="n" s="25">
-        <v>0.9990023869597789</v>
+        <v>0.9988069743309816</v>
       </c>
       <c r="F99" t="n" s="25">
-        <v>0.9999904174188717</v>
+        <v>0.9999580349742353</v>
       </c>
       <c r="G99" t="n" s="25">
-        <v>0.9999990596735967</v>
+        <v>1.0</v>
       </c>
       <c r="H99" t="n" s="25">
-        <v>0.9975165457185352</v>
+        <v>0.9927351512297252</v>
       </c>
       <c r="I99" t="n" s="25">
-        <v>0.9999532139746432</v>
+        <v>1.0</v>
       </c>
       <c r="J99" t="n" s="25">
         <v>1.0</v>
       </c>
       <c r="K99" t="n" s="25">
-        <v>0.9356017840184828</v>
+        <v>1.0</v>
       </c>
       <c r="L99" t="n" s="25">
         <v>1.0</v>
@@ -4017,28 +4017,28 @@
         <v>100.0</v>
       </c>
       <c r="E100" t="n" s="25">
-        <v>0.9638411357973466</v>
+        <v>0.9653971894759951</v>
       </c>
       <c r="F100" t="n" s="25">
-        <v>0.4840362905832256</v>
+        <v>0.570588167692646</v>
       </c>
       <c r="G100" t="n" s="25">
-        <v>0.04397689122527863</v>
+        <v>0.10134923595949782</v>
       </c>
       <c r="H100" t="n" s="25">
-        <v>0.3908975099673956</v>
+        <v>0.4632463267125382</v>
       </c>
       <c r="I100" t="n" s="25">
-        <v>0.03383766549583942</v>
+        <v>0.13845528297835133</v>
       </c>
       <c r="J100" t="n" s="25">
-        <v>7.226803666143031E-11</v>
+        <v>1.0780789798147165E-6</v>
       </c>
       <c r="K100" t="n" s="25">
-        <v>0.045063096145215004</v>
+        <v>0.07389670198213712</v>
       </c>
       <c r="L100" t="n" s="25">
-        <v>2.020658391414229E-9</v>
+        <v>2.1059904911484977E-5</v>
       </c>
       <c r="M100" t="n" s="25">
         <v>6.218341590218176E-29</v>
@@ -4052,28 +4052,28 @@
         <v>101.0</v>
       </c>
       <c r="E101" t="n" s="25">
-        <v>0.9992612861257367</v>
+        <v>0.999294196082906</v>
       </c>
       <c r="F101" t="n" s="25">
-        <v>0.9999769638830568</v>
+        <v>0.9999847968861338</v>
       </c>
       <c r="G101" t="n" s="25">
-        <v>0.999999540157244</v>
+        <v>0.9999999120609238</v>
       </c>
       <c r="H101" t="n" s="25">
-        <v>0.9999689506090006</v>
+        <v>0.9999792387294061</v>
       </c>
       <c r="I101" t="n" s="25">
-        <v>0.9999999999111292</v>
+        <v>0.9999999999794967</v>
       </c>
       <c r="J101" t="n" s="25">
-        <v>0.9999999953823512</v>
+        <v>1.0</v>
       </c>
       <c r="K101" t="n" s="25">
-        <v>0.999918845286931</v>
+        <v>0.9999664741878704</v>
       </c>
       <c r="L101" t="n" s="25">
-        <v>0.9999926651801796</v>
+        <v>1.0</v>
       </c>
       <c r="M101" t="n" s="25">
         <v>0.9989299833739479</v>
@@ -4087,28 +4087,28 @@
         <v>102.0</v>
       </c>
       <c r="E102" t="n" s="25">
-        <v>0.9989990688613227</v>
+        <v>0.9990436495075876</v>
       </c>
       <c r="F102" t="n" s="25">
-        <v>0.9830944309164982</v>
+        <v>0.9887784353261823</v>
       </c>
       <c r="G102" t="n" s="25">
-        <v>0.3293307487755506</v>
+        <v>0.557203051663698</v>
       </c>
       <c r="H102" t="n" s="25">
-        <v>0.9943397705692603</v>
+        <v>0.9957804984662378</v>
       </c>
       <c r="I102" t="n" s="25">
-        <v>0.981539472181201</v>
+        <v>0.9966738733168061</v>
       </c>
       <c r="J102" t="n" s="25">
-        <v>4.4938531347595077E-4</v>
+        <v>0.9999890416045664</v>
       </c>
       <c r="K102" t="n" s="25">
-        <v>0.8483646209268596</v>
+        <v>0.9042682413893033</v>
       </c>
       <c r="L102" t="n" s="25">
-        <v>0.017236260656555882</v>
+        <v>0.997379965395369</v>
       </c>
       <c r="M102" t="n" s="25">
         <v>1.1519350049034942E-17</v>
@@ -4122,28 +4122,28 @@
         <v>103.0</v>
       </c>
       <c r="E103" t="n" s="25">
-        <v>0.9990914510156967</v>
+        <v>0.9991319206125023</v>
       </c>
       <c r="F103" t="n" s="25">
-        <v>0.9949908012593469</v>
+        <v>0.9966884714496063</v>
       </c>
       <c r="G103" t="n" s="25">
-        <v>0.388291433049687</v>
+        <v>0.5431950749625658</v>
       </c>
       <c r="H103" t="n" s="25">
-        <v>0.9977595412036815</v>
+        <v>0.9983900623009214</v>
       </c>
       <c r="I103" t="n" s="25">
-        <v>0.9959307268858958</v>
+        <v>0.9993973894230375</v>
       </c>
       <c r="J103" t="n" s="25">
-        <v>8.638001093175546E-5</v>
+        <v>0.7252892138587161</v>
       </c>
       <c r="K103" t="n" s="25">
-        <v>0.7362998529179454</v>
+        <v>0.7766590547291946</v>
       </c>
       <c r="L103" t="n" s="25">
-        <v>0.0011323518763805712</v>
+        <v>0.003926957240917654</v>
       </c>
       <c r="M103" t="n" s="25">
         <v>9.7398471726486E-22</v>
@@ -4157,28 +4157,28 @@
         <v>104.0</v>
       </c>
       <c r="E104" t="n" s="25">
-        <v>0.9989990688613227</v>
+        <v>0.9990436495075876</v>
       </c>
       <c r="F104" t="n" s="25">
-        <v>0.9830944309164982</v>
+        <v>0.9887784353261823</v>
       </c>
       <c r="G104" t="n" s="25">
-        <v>0.32931596525471374</v>
+        <v>0.557192041132003</v>
       </c>
       <c r="H104" t="n" s="25">
-        <v>0.9917169487612278</v>
+        <v>0.9938211287557048</v>
       </c>
       <c r="I104" t="n" s="25">
-        <v>0.981511626289819</v>
+        <v>0.9966704765525685</v>
       </c>
       <c r="J104" t="n" s="25">
-        <v>1.7980260577709427E-4</v>
+        <v>0.9999726044617322</v>
       </c>
       <c r="K104" t="n" s="25">
-        <v>0.6971358491027009</v>
+        <v>0.7351452477234627</v>
       </c>
       <c r="L104" t="n" s="25">
-        <v>6.071500387232117E-4</v>
+        <v>0.0018147089191538164</v>
       </c>
       <c r="M104" t="n" s="25">
         <v>1.787284620535408E-20</v>
@@ -4192,28 +4192,28 @@
         <v>105.0</v>
       </c>
       <c r="E105" t="n" s="25">
-        <v>0.9992923581596833</v>
+        <v>0.9993238704297327</v>
       </c>
       <c r="F105" t="n" s="25">
-        <v>0.9992230506224166</v>
+        <v>0.9994870048973071</v>
       </c>
       <c r="G105" t="n" s="25">
-        <v>0.9930935889153313</v>
+        <v>0.99899792426723</v>
       </c>
       <c r="H105" t="n" s="25">
-        <v>0.9877821788050906</v>
+        <v>0.9918069916856288</v>
       </c>
       <c r="I105" t="n" s="25">
-        <v>0.9883518970255534</v>
+        <v>0.9980822031678876</v>
       </c>
       <c r="J105" t="n" s="25">
-        <v>0.23838697604994963</v>
+        <v>0.9999998672161968</v>
       </c>
       <c r="K105" t="n" s="25">
-        <v>0.2612436967838687</v>
+        <v>0.31656960934211636</v>
       </c>
       <c r="L105" t="n" s="25">
-        <v>1.5458056823051367E-4</v>
+        <v>4.951015868287216E-4</v>
       </c>
       <c r="M105" t="n" s="25">
         <v>1.960422652839263E-16</v>
@@ -4227,28 +4227,28 @@
         <v>106.0</v>
       </c>
       <c r="E106" t="n" s="25">
-        <v>0.9989990688613227</v>
+        <v>0.9990436495075876</v>
       </c>
       <c r="F106" t="n" s="25">
-        <v>0.9819609413641635</v>
+        <v>0.9880214049895982</v>
       </c>
       <c r="G106" t="n" s="25">
-        <v>0.18178003084876074</v>
+        <v>0.2938790970129889</v>
       </c>
       <c r="H106" t="n" s="25">
-        <v>0.9943397705692603</v>
+        <v>0.9957804984662378</v>
       </c>
       <c r="I106" t="n" s="25">
-        <v>0.981514963075046</v>
+        <v>0.9966708834340239</v>
       </c>
       <c r="J106" t="n" s="25">
-        <v>6.253540296617605E-6</v>
+        <v>0.14301324377235544</v>
       </c>
       <c r="K106" t="n" s="25">
-        <v>0.848204179536779</v>
+        <v>0.9041962418023943</v>
       </c>
       <c r="L106" t="n" s="25">
-        <v>0.004365498820730053</v>
+        <v>0.9896015941308974</v>
       </c>
       <c r="M106" t="n" s="25">
         <v>2.1260484936341924E-21</v>
@@ -4262,28 +4262,28 @@
         <v>107.0</v>
       </c>
       <c r="E107" t="n" s="25">
-        <v>0.9952321841889179</v>
+        <v>0.99544377358557</v>
       </c>
       <c r="F107" t="n" s="25">
-        <v>0.9914487246766905</v>
+        <v>0.9939081359578636</v>
       </c>
       <c r="G107" t="n" s="25">
-        <v>0.5317193445324077</v>
+        <v>0.667588007448746</v>
       </c>
       <c r="H107" t="n" s="25">
-        <v>0.9982575651593167</v>
+        <v>0.9988342545247384</v>
       </c>
       <c r="I107" t="n" s="25">
-        <v>0.9972816763693806</v>
+        <v>0.9996545178841492</v>
       </c>
       <c r="J107" t="n" s="25">
-        <v>0.01777378490829095</v>
+        <v>0.9983846831985678</v>
       </c>
       <c r="K107" t="n" s="25">
-        <v>0.9332576297531409</v>
+        <v>0.9805157441068119</v>
       </c>
       <c r="L107" t="n" s="25">
-        <v>0.6319171868149948</v>
+        <v>0.9999999976296363</v>
       </c>
       <c r="M107" t="n" s="25">
         <v>1.4659208867162038E-13</v>
@@ -4297,25 +4297,25 @@
         <v>108.0</v>
       </c>
       <c r="E108" t="n" s="25">
-        <v>0.9992612861257367</v>
+        <v>0.9991165418662171</v>
       </c>
       <c r="F108" t="n" s="25">
-        <v>0.9999997062170045</v>
+        <v>0.9999987133948762</v>
       </c>
       <c r="G108" t="n" s="25">
-        <v>0.9999999999999781</v>
+        <v>1.0</v>
       </c>
       <c r="H108" t="n" s="25">
-        <v>0.999975544854033</v>
+        <v>0.9998966276589067</v>
       </c>
       <c r="I108" t="n" s="25">
-        <v>0.9999999999999998</v>
+        <v>1.0</v>
       </c>
       <c r="J108" t="n" s="25">
         <v>1.0</v>
       </c>
       <c r="K108" t="n" s="25">
-        <v>0.9999460605913012</v>
+        <v>1.0</v>
       </c>
       <c r="L108" t="n" s="25">
         <v>1.0</v>
@@ -4332,28 +4332,28 @@
         <v>109.0</v>
       </c>
       <c r="E109" t="n" s="25">
-        <v>0.9907563258989524</v>
+        <v>0.9911647846311958</v>
       </c>
       <c r="F109" t="n" s="25">
-        <v>0.7423873214015314</v>
+        <v>0.8087787899341565</v>
       </c>
       <c r="G109" t="n" s="25">
-        <v>0.01270957295059414</v>
+        <v>0.022965505631810487</v>
       </c>
       <c r="H109" t="n" s="25">
-        <v>0.5640528110759537</v>
+        <v>0.6187170363557097</v>
       </c>
       <c r="I109" t="n" s="25">
-        <v>0.057036914686937466</v>
+        <v>0.18830083965086936</v>
       </c>
       <c r="J109" t="n" s="25">
-        <v>6.825256484991291E-13</v>
+        <v>1.3810951830993998E-8</v>
       </c>
       <c r="K109" t="n" s="25">
-        <v>0.138985709661069</v>
+        <v>0.15665015554839845</v>
       </c>
       <c r="L109" t="n" s="25">
-        <v>7.562600315378015E-10</v>
+        <v>1.7597961421505993E-9</v>
       </c>
       <c r="M109" t="n" s="25">
         <v>2.9651648435977156E-33</v>
@@ -4367,28 +4367,28 @@
         <v>110.0</v>
       </c>
       <c r="E110" t="n" s="25">
-        <v>0.9990914510156967</v>
+        <v>0.9991319206125023</v>
       </c>
       <c r="F110" t="n" s="25">
-        <v>0.997074710552855</v>
+        <v>0.9980674936648867</v>
       </c>
       <c r="G110" t="n" s="25">
-        <v>0.8760636182513117</v>
+        <v>0.9687735033577772</v>
       </c>
       <c r="H110" t="n" s="25">
-        <v>0.9977595412036815</v>
+        <v>0.9983900623009214</v>
       </c>
       <c r="I110" t="n" s="25">
-        <v>0.9962030938520052</v>
+        <v>0.9994249491806009</v>
       </c>
       <c r="J110" t="n" s="25">
-        <v>0.9532184773497941</v>
+        <v>1.0</v>
       </c>
       <c r="K110" t="n" s="25">
-        <v>0.7371645018692953</v>
+        <v>0.7771745899374789</v>
       </c>
       <c r="L110" t="n" s="25">
-        <v>0.027985034296653288</v>
+        <v>0.09101274528712047</v>
       </c>
       <c r="M110" t="n" s="25">
         <v>7.0815509309070955E-12</v>
@@ -4402,28 +4402,28 @@
         <v>111.0</v>
       </c>
       <c r="E111" t="n" s="25">
-        <v>0.9989990688613227</v>
+        <v>0.9990436495075876</v>
       </c>
       <c r="F111" t="n" s="25">
-        <v>0.9819609413641635</v>
+        <v>0.9880214049895982</v>
       </c>
       <c r="G111" t="n" s="25">
-        <v>0.18177945350846686</v>
+        <v>0.2938785599812437</v>
       </c>
       <c r="H111" t="n" s="25">
-        <v>0.9917169487612278</v>
+        <v>0.9938211287557048</v>
       </c>
       <c r="I111" t="n" s="25">
-        <v>0.9815082250157697</v>
+        <v>0.9966700618670401</v>
       </c>
       <c r="J111" t="n" s="25">
-        <v>2.501425504305147E-6</v>
+        <v>0.06257470437979058</v>
       </c>
       <c r="K111" t="n" s="25">
-        <v>0.6971051531045412</v>
+        <v>0.7351263744167347</v>
       </c>
       <c r="L111" t="n" s="25">
-        <v>1.5185665951317057E-4</v>
+        <v>4.5429554041481735E-4</v>
       </c>
       <c r="M111" t="n" s="25">
         <v>3.297816175103146E-24</v>
